--- a/2022/Samsung/APRIL/28.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/28.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\SAMSUNG\APRIL\27.04.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\SAMSUNG\APRIL\28.04.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,7 +126,7 @@
     <author>8801715116767</author>
   </authors>
   <commentList>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="343">
   <si>
     <t>Date</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Kurier Cost</t>
-  </si>
-  <si>
-    <t>House Rent</t>
   </si>
   <si>
     <t>Amount</t>
@@ -1153,7 +1150,31 @@
     <t>27.04.2023</t>
   </si>
   <si>
-    <t>Date:27.04.2022</t>
+    <t>28.04.2022</t>
+  </si>
+  <si>
+    <t>29.04.2022</t>
+  </si>
+  <si>
+    <t>30.04.2022</t>
+  </si>
+  <si>
+    <t>BRM Cost</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Date:28.04.2022</t>
+  </si>
+  <si>
+    <t>A52s(Note 10 Lite)</t>
+  </si>
+  <si>
+    <t>A52s</t>
+  </si>
+  <si>
+    <t>Zilani</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1492,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,6 +1753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,9 +3385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="37" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="37" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3395,9 +3419,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3471,9 +3492,6 @@
     <xf numFmtId="1" fontId="32" fillId="43" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3560,9 +3578,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3591,15 +3606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="42" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3640,9 +3646,6 @@
     <xf numFmtId="1" fontId="36" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="42" fillId="46" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3658,6 +3661,24 @@
     <xf numFmtId="1" fontId="32" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3799,79 +3820,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4331,33 +4358,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="403"/>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
+      <c r="A1" s="401"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="404"/>
-      <c r="B2" s="401" t="s">
+      <c r="A2" s="402"/>
+      <c r="B2" s="399" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="404"/>
-      <c r="B3" s="402" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="402"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="402"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="400" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="404"/>
+      <c r="A4" s="402"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +4402,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="404"/>
+      <c r="A5" s="402"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4420,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="404"/>
+      <c r="A6" s="402"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4405,9 +4432,9 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="404"/>
+      <c r="A7" s="402"/>
       <c r="B7" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="25">
         <v>245000</v>
@@ -4424,9 +4451,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="404"/>
+      <c r="A8" s="402"/>
       <c r="B8" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="25">
         <v>0</v>
@@ -4443,9 +4470,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="404"/>
+      <c r="A9" s="402"/>
       <c r="B9" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
@@ -4462,9 +4489,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="404"/>
+      <c r="A10" s="402"/>
       <c r="B10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="28">
         <v>400000</v>
@@ -4481,9 +4508,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="404"/>
+      <c r="A11" s="402"/>
       <c r="B11" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
@@ -4500,9 +4527,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="404"/>
+      <c r="A12" s="402"/>
       <c r="B12" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="25">
         <v>250000</v>
@@ -4519,9 +4546,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="404"/>
+      <c r="A13" s="402"/>
       <c r="B13" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="25">
         <v>450000</v>
@@ -4538,9 +4565,9 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="404"/>
+      <c r="A14" s="402"/>
       <c r="B14" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="25">
         <v>300000</v>
@@ -4557,9 +4584,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="404"/>
+      <c r="A15" s="402"/>
       <c r="B15" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="25">
         <v>370000</v>
@@ -4576,7 +4603,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="404"/>
+      <c r="A16" s="402"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4589,7 +4616,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="404"/>
+      <c r="A17" s="402"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4602,7 +4629,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="404"/>
+      <c r="A18" s="402"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4615,7 +4642,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="404"/>
+      <c r="A19" s="402"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4628,7 +4655,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="404"/>
+      <c r="A20" s="402"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4641,7 +4668,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="404"/>
+      <c r="A21" s="402"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4654,7 +4681,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="404"/>
+      <c r="A22" s="402"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4667,7 +4694,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="404"/>
+      <c r="A23" s="402"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4680,7 +4707,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="404"/>
+      <c r="A24" s="402"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4693,7 +4720,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="404"/>
+      <c r="A25" s="402"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4706,7 +4733,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="404"/>
+      <c r="A26" s="402"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4719,7 +4746,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="404"/>
+      <c r="A27" s="402"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4732,7 +4759,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="404"/>
+      <c r="A28" s="402"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4745,7 +4772,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="404"/>
+      <c r="A29" s="402"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4758,7 +4785,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="404"/>
+      <c r="A30" s="402"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4771,7 +4798,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="404"/>
+      <c r="A31" s="402"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4784,7 +4811,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="404"/>
+      <c r="A32" s="402"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4797,7 +4824,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="404"/>
+      <c r="A33" s="402"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4810,7 +4837,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="404"/>
+      <c r="A34" s="402"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4823,7 +4850,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="404"/>
+      <c r="A35" s="402"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4836,7 +4863,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="404"/>
+      <c r="A36" s="402"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4849,7 +4876,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="404"/>
+      <c r="A37" s="402"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4862,7 +4889,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="404"/>
+      <c r="A38" s="402"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4875,7 +4902,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="404"/>
+      <c r="A39" s="402"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4888,7 +4915,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="404"/>
+      <c r="A40" s="402"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4901,7 +4928,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="404"/>
+      <c r="A41" s="402"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4914,7 +4941,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="404"/>
+      <c r="A42" s="402"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4927,7 +4954,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="404"/>
+      <c r="A43" s="402"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4940,7 +4967,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="404"/>
+      <c r="A44" s="402"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4953,7 +4980,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="404"/>
+      <c r="A45" s="402"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4966,7 +4993,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="404"/>
+      <c r="A46" s="402"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4979,7 +5006,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="404"/>
+      <c r="A47" s="402"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4992,7 +5019,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="404"/>
+      <c r="A48" s="402"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -5005,7 +5032,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="404"/>
+      <c r="A49" s="402"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5018,7 +5045,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="404"/>
+      <c r="A50" s="402"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5031,7 +5058,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="404"/>
+      <c r="A51" s="402"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5044,7 +5071,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="404"/>
+      <c r="A52" s="402"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5057,7 +5084,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="404"/>
+      <c r="A53" s="402"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5070,7 +5097,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="404"/>
+      <c r="A54" s="402"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5083,7 +5110,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="404"/>
+      <c r="A55" s="402"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5095,7 +5122,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="404"/>
+      <c r="A56" s="402"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5107,7 +5134,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="404"/>
+      <c r="A57" s="402"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5119,7 +5146,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="404"/>
+      <c r="A58" s="402"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5131,7 +5158,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="404"/>
+      <c r="A59" s="402"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5143,7 +5170,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="404"/>
+      <c r="A60" s="402"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5155,7 +5182,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="404"/>
+      <c r="A61" s="402"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5167,7 +5194,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="404"/>
+      <c r="A62" s="402"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5179,7 +5206,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="404"/>
+      <c r="A63" s="402"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5191,7 +5218,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="404"/>
+      <c r="A64" s="402"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5203,7 +5230,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="404"/>
+      <c r="A65" s="402"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5215,7 +5242,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="404"/>
+      <c r="A66" s="402"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5227,7 +5254,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="404"/>
+      <c r="A67" s="402"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5239,7 +5266,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="404"/>
+      <c r="A68" s="402"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5251,7 +5278,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="404"/>
+      <c r="A69" s="402"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5263,7 +5290,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="404"/>
+      <c r="A70" s="402"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5275,7 +5302,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="404"/>
+      <c r="A71" s="402"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5287,7 +5314,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="404"/>
+      <c r="A72" s="402"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5299,7 +5326,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="404"/>
+      <c r="A73" s="402"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5311,7 +5338,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="404"/>
+      <c r="A74" s="402"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5323,7 +5350,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="404"/>
+      <c r="A75" s="402"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5335,7 +5362,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="404"/>
+      <c r="A76" s="402"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5347,7 +5374,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="404"/>
+      <c r="A77" s="402"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5359,7 +5386,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="404"/>
+      <c r="A78" s="402"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5371,7 +5398,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="404"/>
+      <c r="A79" s="402"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5383,7 +5410,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="404"/>
+      <c r="A80" s="402"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5395,7 +5422,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="404"/>
+      <c r="A81" s="402"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5407,7 +5434,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="404"/>
+      <c r="A82" s="402"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5419,7 +5446,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="404"/>
+      <c r="A83" s="402"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5459,7 +5486,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5476,33 +5503,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="403"/>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
+      <c r="A1" s="401"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="404"/>
-      <c r="B2" s="401" t="s">
+      <c r="A2" s="402"/>
+      <c r="B2" s="399" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="404"/>
-      <c r="B3" s="402" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="402"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="402"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="400" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="404"/>
+      <c r="A4" s="402"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5547,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="404"/>
+      <c r="A5" s="402"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5538,7 +5565,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="404"/>
+      <c r="A6" s="402"/>
       <c r="B6" s="26"/>
       <c r="C6" s="242"/>
       <c r="D6" s="242"/>
@@ -5550,9 +5577,9 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="404"/>
+      <c r="A7" s="402"/>
       <c r="B7" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="242">
         <v>0</v>
@@ -5570,9 +5597,9 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="404"/>
+      <c r="A8" s="402"/>
       <c r="B8" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="242">
         <v>0</v>
@@ -5590,9 +5617,9 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="404"/>
+      <c r="A9" s="402"/>
       <c r="B9" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="242">
         <v>0</v>
@@ -5610,9 +5637,9 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="404"/>
+      <c r="A10" s="402"/>
       <c r="B10" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="244">
         <v>300000</v>
@@ -5630,9 +5657,9 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="404"/>
+      <c r="A11" s="402"/>
       <c r="B11" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="242">
         <v>200000</v>
@@ -5650,9 +5677,9 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="404"/>
+      <c r="A12" s="402"/>
       <c r="B12" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="242">
         <v>0</v>
@@ -5670,31 +5697,31 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="404"/>
-      <c r="B13" s="354" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="355">
+      <c r="A13" s="402"/>
+      <c r="B13" s="351" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="352">
         <v>500000</v>
       </c>
-      <c r="D13" s="355">
+      <c r="D13" s="352">
         <v>500000</v>
       </c>
-      <c r="E13" s="356">
+      <c r="E13" s="353">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="357" t="s">
-        <v>260</v>
+      <c r="F13" s="354" t="s">
+        <v>259</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="404"/>
+      <c r="A14" s="402"/>
       <c r="B14" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="242">
         <v>600000</v>
@@ -5712,9 +5739,9 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="404"/>
+      <c r="A15" s="402"/>
       <c r="B15" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="242">
         <v>0</v>
@@ -5732,9 +5759,9 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="404"/>
+      <c r="A16" s="402"/>
       <c r="B16" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="242">
         <v>0</v>
@@ -5752,9 +5779,9 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="404"/>
+      <c r="A17" s="402"/>
       <c r="B17" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="242">
         <v>0</v>
@@ -5772,9 +5799,9 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="404"/>
+      <c r="A18" s="402"/>
       <c r="B18" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="242">
         <v>0</v>
@@ -5792,9 +5819,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="404"/>
+      <c r="A19" s="402"/>
       <c r="B19" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" s="242">
         <v>950000</v>
@@ -5812,9 +5839,9 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="404"/>
+      <c r="A20" s="402"/>
       <c r="B20" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C20" s="242">
         <v>750000</v>
@@ -5832,31 +5859,31 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="404"/>
-      <c r="B21" s="354" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="355">
+      <c r="A21" s="402"/>
+      <c r="B21" s="351" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="352">
         <v>1000000</v>
       </c>
-      <c r="D21" s="355">
+      <c r="D21" s="352">
         <v>0</v>
       </c>
-      <c r="E21" s="356">
+      <c r="E21" s="353">
         <f>E20+C21-D21</f>
         <v>1000000</v>
       </c>
-      <c r="F21" s="357" t="s">
-        <v>260</v>
+      <c r="F21" s="354" t="s">
+        <v>259</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="404"/>
+      <c r="A22" s="402"/>
       <c r="B22" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C22" s="242">
         <v>350000</v>
@@ -5874,9 +5901,9 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="404"/>
+      <c r="A23" s="402"/>
       <c r="B23" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="242">
         <v>60000</v>
@@ -5894,9 +5921,9 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="404"/>
+      <c r="A24" s="402"/>
       <c r="B24" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" s="242">
         <v>150000</v>
@@ -5914,9 +5941,9 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="404"/>
+      <c r="A25" s="402"/>
       <c r="B25" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" s="242">
         <v>0</v>
@@ -5934,9 +5961,9 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="404"/>
+      <c r="A26" s="402"/>
       <c r="B26" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="242">
         <v>0</v>
@@ -5954,9 +5981,9 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="404"/>
+      <c r="A27" s="402"/>
       <c r="B27" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="242">
         <v>0</v>
@@ -5974,9 +6001,9 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="404"/>
+      <c r="A28" s="402"/>
       <c r="B28" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="242">
         <v>210000</v>
@@ -5994,9 +6021,9 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="404"/>
+      <c r="A29" s="402"/>
       <c r="B29" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" s="242">
         <v>200000</v>
@@ -6014,9 +6041,9 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="404"/>
+      <c r="A30" s="402"/>
       <c r="B30" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="242">
         <v>800000</v>
@@ -6034,27 +6061,41 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="404"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="243">
+      <c r="A31" s="402"/>
+      <c r="B31" s="351" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="352">
+        <v>2500000</v>
+      </c>
+      <c r="D31" s="352">
+        <v>2500000</v>
+      </c>
+      <c r="E31" s="353">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="354" t="s">
+        <v>259</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="404"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
+      <c r="A32" s="402"/>
+      <c r="B32" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="242">
+        <v>90000</v>
+      </c>
+      <c r="D32" s="242">
+        <v>0</v>
+      </c>
       <c r="E32" s="243">
         <f>E31+C32-D32</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="21"/>
@@ -6062,13 +6103,13 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="404"/>
+      <c r="A33" s="402"/>
       <c r="B33" s="26"/>
       <c r="C33" s="242"/>
       <c r="D33" s="244"/>
       <c r="E33" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="21"/>
@@ -6076,13 +6117,13 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="404"/>
+      <c r="A34" s="402"/>
       <c r="B34" s="26"/>
       <c r="C34" s="242"/>
       <c r="D34" s="242"/>
       <c r="E34" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="21"/>
@@ -6090,13 +6131,13 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="404"/>
+      <c r="A35" s="402"/>
       <c r="B35" s="26"/>
       <c r="C35" s="242"/>
       <c r="D35" s="242"/>
       <c r="E35" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="21"/>
@@ -6104,13 +6145,13 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="404"/>
+      <c r="A36" s="402"/>
       <c r="B36" s="26"/>
       <c r="C36" s="242"/>
       <c r="D36" s="242"/>
       <c r="E36" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="21"/>
@@ -6118,13 +6159,13 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="404"/>
+      <c r="A37" s="402"/>
       <c r="B37" s="26"/>
       <c r="C37" s="242"/>
       <c r="D37" s="242"/>
       <c r="E37" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="21"/>
@@ -6132,13 +6173,13 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="404"/>
+      <c r="A38" s="402"/>
       <c r="B38" s="26"/>
       <c r="C38" s="242"/>
       <c r="D38" s="242"/>
       <c r="E38" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="21"/>
@@ -6146,13 +6187,13 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="404"/>
+      <c r="A39" s="402"/>
       <c r="B39" s="26"/>
       <c r="C39" s="242"/>
       <c r="D39" s="242"/>
       <c r="E39" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="21"/>
@@ -6160,13 +6201,13 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="404"/>
+      <c r="A40" s="402"/>
       <c r="B40" s="26"/>
       <c r="C40" s="242"/>
       <c r="D40" s="242"/>
       <c r="E40" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="21"/>
@@ -6174,13 +6215,13 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="404"/>
+      <c r="A41" s="402"/>
       <c r="B41" s="26"/>
       <c r="C41" s="242"/>
       <c r="D41" s="242"/>
       <c r="E41" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="21"/>
@@ -6188,13 +6229,13 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="404"/>
+      <c r="A42" s="402"/>
       <c r="B42" s="26"/>
       <c r="C42" s="242"/>
       <c r="D42" s="242"/>
       <c r="E42" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="21"/>
@@ -6202,13 +6243,13 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="404"/>
+      <c r="A43" s="402"/>
       <c r="B43" s="26"/>
       <c r="C43" s="242"/>
       <c r="D43" s="242"/>
       <c r="E43" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="21"/>
@@ -6216,13 +6257,13 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="404"/>
+      <c r="A44" s="402"/>
       <c r="B44" s="26"/>
       <c r="C44" s="242"/>
       <c r="D44" s="242"/>
       <c r="E44" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="21"/>
@@ -6230,13 +6271,13 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="404"/>
+      <c r="A45" s="402"/>
       <c r="B45" s="26"/>
       <c r="C45" s="242"/>
       <c r="D45" s="242"/>
       <c r="E45" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="21"/>
@@ -6244,13 +6285,13 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="404"/>
+      <c r="A46" s="402"/>
       <c r="B46" s="26"/>
       <c r="C46" s="242"/>
       <c r="D46" s="242"/>
       <c r="E46" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="21"/>
@@ -6258,13 +6299,13 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="404"/>
+      <c r="A47" s="402"/>
       <c r="B47" s="26"/>
       <c r="C47" s="242"/>
       <c r="D47" s="242"/>
       <c r="E47" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="21"/>
@@ -6272,13 +6313,13 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="404"/>
+      <c r="A48" s="402"/>
       <c r="B48" s="26"/>
       <c r="C48" s="242"/>
       <c r="D48" s="242"/>
       <c r="E48" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="21"/>
@@ -6286,13 +6327,13 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="404"/>
+      <c r="A49" s="402"/>
       <c r="B49" s="26"/>
       <c r="C49" s="242"/>
       <c r="D49" s="242"/>
       <c r="E49" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="21"/>
@@ -6300,13 +6341,13 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="404"/>
+      <c r="A50" s="402"/>
       <c r="B50" s="26"/>
       <c r="C50" s="242"/>
       <c r="D50" s="242"/>
       <c r="E50" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="21"/>
@@ -6314,13 +6355,13 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="404"/>
+      <c r="A51" s="402"/>
       <c r="B51" s="26"/>
       <c r="C51" s="242"/>
       <c r="D51" s="242"/>
       <c r="E51" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="21"/>
@@ -6328,13 +6369,13 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="404"/>
+      <c r="A52" s="402"/>
       <c r="B52" s="26"/>
       <c r="C52" s="242"/>
       <c r="D52" s="242"/>
       <c r="E52" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="21"/>
@@ -6342,13 +6383,13 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="404"/>
+      <c r="A53" s="402"/>
       <c r="B53" s="26"/>
       <c r="C53" s="242"/>
       <c r="D53" s="242"/>
       <c r="E53" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="21"/>
@@ -6356,13 +6397,13 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="404"/>
+      <c r="A54" s="402"/>
       <c r="B54" s="26"/>
       <c r="C54" s="242"/>
       <c r="D54" s="242"/>
       <c r="E54" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="21"/>
@@ -6370,13 +6411,13 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="404"/>
+      <c r="A55" s="402"/>
       <c r="B55" s="26"/>
       <c r="C55" s="242"/>
       <c r="D55" s="242"/>
       <c r="E55" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="21"/>
@@ -6384,13 +6425,13 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="404"/>
+      <c r="A56" s="402"/>
       <c r="B56" s="26"/>
       <c r="C56" s="242"/>
       <c r="D56" s="242"/>
       <c r="E56" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="21"/>
@@ -6398,309 +6439,309 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="404"/>
+      <c r="A57" s="402"/>
       <c r="B57" s="26"/>
       <c r="C57" s="242"/>
       <c r="D57" s="242"/>
       <c r="E57" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="404"/>
+      <c r="A58" s="402"/>
       <c r="B58" s="26"/>
       <c r="C58" s="242"/>
       <c r="D58" s="242"/>
       <c r="E58" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="404"/>
+      <c r="A59" s="402"/>
       <c r="B59" s="26"/>
       <c r="C59" s="242"/>
       <c r="D59" s="242"/>
       <c r="E59" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="404"/>
+      <c r="A60" s="402"/>
       <c r="B60" s="26"/>
       <c r="C60" s="242"/>
       <c r="D60" s="242"/>
       <c r="E60" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="404"/>
+      <c r="A61" s="402"/>
       <c r="B61" s="26"/>
       <c r="C61" s="242"/>
       <c r="D61" s="242"/>
       <c r="E61" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="404"/>
+      <c r="A62" s="402"/>
       <c r="B62" s="26"/>
       <c r="C62" s="242"/>
       <c r="D62" s="242"/>
       <c r="E62" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="404"/>
+      <c r="A63" s="402"/>
       <c r="B63" s="26"/>
       <c r="C63" s="242"/>
       <c r="D63" s="242"/>
       <c r="E63" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="404"/>
+      <c r="A64" s="402"/>
       <c r="B64" s="26"/>
       <c r="C64" s="242"/>
       <c r="D64" s="242"/>
       <c r="E64" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="404"/>
+      <c r="A65" s="402"/>
       <c r="B65" s="26"/>
       <c r="C65" s="242"/>
       <c r="D65" s="242"/>
       <c r="E65" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="404"/>
+      <c r="A66" s="402"/>
       <c r="B66" s="26"/>
       <c r="C66" s="242"/>
       <c r="D66" s="242"/>
       <c r="E66" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="404"/>
+      <c r="A67" s="402"/>
       <c r="B67" s="26"/>
       <c r="C67" s="242"/>
       <c r="D67" s="242"/>
       <c r="E67" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="404"/>
+      <c r="A68" s="402"/>
       <c r="B68" s="26"/>
       <c r="C68" s="242"/>
       <c r="D68" s="242"/>
       <c r="E68" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="404"/>
+      <c r="A69" s="402"/>
       <c r="B69" s="26"/>
       <c r="C69" s="242"/>
       <c r="D69" s="242"/>
       <c r="E69" s="243">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="404"/>
+      <c r="A70" s="402"/>
       <c r="B70" s="26"/>
       <c r="C70" s="242"/>
       <c r="D70" s="242"/>
       <c r="E70" s="243">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="404"/>
+      <c r="A71" s="402"/>
       <c r="B71" s="26"/>
       <c r="C71" s="242"/>
       <c r="D71" s="242"/>
       <c r="E71" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="404"/>
+      <c r="A72" s="402"/>
       <c r="B72" s="26"/>
       <c r="C72" s="242"/>
       <c r="D72" s="242"/>
       <c r="E72" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="404"/>
+      <c r="A73" s="402"/>
       <c r="B73" s="26"/>
       <c r="C73" s="242"/>
       <c r="D73" s="242"/>
       <c r="E73" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="404"/>
+      <c r="A74" s="402"/>
       <c r="B74" s="26"/>
       <c r="C74" s="242"/>
       <c r="D74" s="242"/>
       <c r="E74" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="404"/>
+      <c r="A75" s="402"/>
       <c r="B75" s="26"/>
       <c r="C75" s="242"/>
       <c r="D75" s="242"/>
       <c r="E75" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="404"/>
+      <c r="A76" s="402"/>
       <c r="B76" s="26"/>
       <c r="C76" s="242"/>
       <c r="D76" s="242"/>
       <c r="E76" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="404"/>
+      <c r="A77" s="402"/>
       <c r="B77" s="26"/>
       <c r="C77" s="242"/>
       <c r="D77" s="242"/>
       <c r="E77" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="404"/>
+      <c r="A78" s="402"/>
       <c r="B78" s="26"/>
       <c r="C78" s="242"/>
       <c r="D78" s="242"/>
       <c r="E78" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="404"/>
+      <c r="A79" s="402"/>
       <c r="B79" s="26"/>
       <c r="C79" s="242"/>
       <c r="D79" s="242"/>
       <c r="E79" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="404"/>
+      <c r="A80" s="402"/>
       <c r="B80" s="26"/>
       <c r="C80" s="242"/>
       <c r="D80" s="242"/>
       <c r="E80" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="404"/>
+      <c r="A81" s="402"/>
       <c r="B81" s="26"/>
       <c r="C81" s="242"/>
       <c r="D81" s="242"/>
       <c r="E81" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="404"/>
+      <c r="A82" s="402"/>
       <c r="B82" s="26"/>
       <c r="C82" s="242"/>
       <c r="D82" s="242"/>
       <c r="E82" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="404"/>
+      <c r="A83" s="402"/>
       <c r="B83" s="31"/>
       <c r="C83" s="243">
         <f>SUM(C5:C72)</f>
-        <v>6070000</v>
+        <v>8660000</v>
       </c>
       <c r="D83" s="243">
         <f>SUM(D5:D77)</f>
-        <v>6070000</v>
+        <v>8570000</v>
       </c>
       <c r="E83" s="245">
         <f>E71</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="2"/>
@@ -6725,8 +6766,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6744,67 +6785,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="407" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="409"/>
-      <c r="G1" s="409"/>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
-      <c r="P1" s="409"/>
-      <c r="Q1" s="409"/>
+      <c r="B1" s="407"/>
+      <c r="C1" s="407"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
+      <c r="N1" s="407"/>
+      <c r="O1" s="407"/>
+      <c r="P1" s="407"/>
+      <c r="Q1" s="407"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="410" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="410"/>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
+      <c r="A2" s="408" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="408"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="408"/>
+      <c r="J2" s="408"/>
+      <c r="K2" s="408"/>
+      <c r="L2" s="408"/>
+      <c r="M2" s="408"/>
+      <c r="N2" s="408"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="408"/>
+      <c r="Q2" s="408"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="411" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="412"/>
-      <c r="P3" s="412"/>
-      <c r="Q3" s="413"/>
+      <c r="A3" s="409" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="410"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
+      <c r="F3" s="410"/>
+      <c r="G3" s="410"/>
+      <c r="H3" s="410"/>
+      <c r="I3" s="410"/>
+      <c r="J3" s="410"/>
+      <c r="K3" s="410"/>
+      <c r="L3" s="410"/>
+      <c r="M3" s="410"/>
+      <c r="N3" s="410"/>
+      <c r="O3" s="410"/>
+      <c r="P3" s="410"/>
+      <c r="Q3" s="411"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6813,53 +6854,53 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="416" t="s">
+      <c r="B4" s="414" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="405" t="s">
+      <c r="C4" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="405" t="s">
+      <c r="D4" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="418" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="405" t="s">
+      <c r="F4" s="416" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="403" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="405" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="405" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="405" t="s">
+      <c r="H4" s="403" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="403" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="403" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="405" t="s">
+      <c r="K4" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="405" t="s">
-        <v>277</v>
-      </c>
-      <c r="M4" s="405" t="s">
-        <v>275</v>
-      </c>
-      <c r="N4" s="405" t="s">
+      <c r="L4" s="403" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="403" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" s="403" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="407" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="420" t="s">
-        <v>142</v>
+      <c r="O4" s="405" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="418" t="s">
+        <v>141</v>
       </c>
       <c r="Q4" s="121" t="s">
         <v>4</v>
@@ -6871,24 +6912,24 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="415"/>
-      <c r="B5" s="417"/>
-      <c r="C5" s="406"/>
-      <c r="D5" s="406"/>
-      <c r="E5" s="406"/>
-      <c r="F5" s="419"/>
-      <c r="G5" s="406"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="406"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="406"/>
-      <c r="N5" s="406"/>
-      <c r="O5" s="408"/>
-      <c r="P5" s="421"/>
+      <c r="A5" s="413"/>
+      <c r="B5" s="415"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="417"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="406"/>
+      <c r="P5" s="419"/>
       <c r="Q5" s="122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" s="68"/>
       <c r="T5" s="69"/>
@@ -6899,7 +6940,7 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="72">
         <v>1000</v>
@@ -6924,13 +6965,15 @@
         <v>600</v>
       </c>
       <c r="N6" s="110"/>
-      <c r="O6" s="73"/>
+      <c r="O6" s="73">
+        <v>8840</v>
+      </c>
       <c r="P6" s="75">
         <v>1000</v>
       </c>
       <c r="Q6" s="76">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>2840</v>
+        <v>11680</v>
       </c>
       <c r="R6" s="77"/>
       <c r="S6" s="78"/>
@@ -6941,7 +6984,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -6976,7 +7019,7 @@
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1">
       <c r="A8" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="72"/>
@@ -7007,14 +7050,14 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="79">
         <v>1000</v>
@@ -7056,7 +7099,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="79"/>
       <c r="C10" s="72">
@@ -7094,7 +7137,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="72"/>
@@ -7132,7 +7175,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="79">
         <v>1000</v>
@@ -7170,7 +7213,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="72"/>
@@ -7206,7 +7249,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="79"/>
       <c r="C14" s="72"/>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="79">
         <v>1000</v>
@@ -7286,7 +7329,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="79"/>
       <c r="C16" s="72"/>
@@ -7324,7 +7367,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="79"/>
       <c r="C17" s="72"/>
@@ -7362,7 +7405,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="79">
         <v>1000</v>
@@ -7400,7 +7443,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19" s="79"/>
       <c r="C19" s="72"/>
@@ -7442,7 +7485,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" s="79"/>
       <c r="C20" s="72"/>
@@ -7478,7 +7521,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" s="79">
         <v>1000</v>
@@ -7512,7 +7555,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" s="79"/>
       <c r="C22" s="72"/>
@@ -7544,7 +7587,7 @@
     </row>
     <row r="23" spans="1:23" s="87" customFormat="1">
       <c r="A23" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B23" s="79"/>
       <c r="C23" s="72"/>
@@ -7578,7 +7621,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="79">
         <v>1000</v>
@@ -7615,7 +7658,7 @@
     </row>
     <row r="25" spans="1:23" s="87" customFormat="1">
       <c r="A25" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B25" s="79"/>
       <c r="C25" s="72"/>
@@ -7649,7 +7692,7 @@
     </row>
     <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="72"/>
@@ -7683,7 +7726,7 @@
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1">
       <c r="A27" s="71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="79">
         <v>500</v>
@@ -7717,7 +7760,7 @@
     </row>
     <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B28" s="79">
         <v>500</v>
@@ -7755,7 +7798,7 @@
     </row>
     <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="72"/>
@@ -7788,17 +7831,27 @@
       <c r="U29" s="90"/>
     </row>
     <row r="30" spans="1:23" s="13" customFormat="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="79">
+        <v>500</v>
+      </c>
       <c r="C30" s="72"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
       <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
+      <c r="I30" s="80">
+        <v>160</v>
+      </c>
+      <c r="J30" s="80">
+        <v>30</v>
+      </c>
+      <c r="K30" s="80">
+        <v>0</v>
+      </c>
       <c r="L30" s="80"/>
       <c r="M30" s="80"/>
       <c r="N30" s="111"/>
@@ -7806,7 +7859,7 @@
       <c r="P30" s="82"/>
       <c r="Q30" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="R30" s="77"/>
       <c r="S30" s="89"/>
@@ -7814,7 +7867,9 @@
       <c r="U30" s="89"/>
     </row>
     <row r="31" spans="1:23" s="13" customFormat="1">
-      <c r="A31" s="71"/>
+      <c r="A31" s="71" t="s">
+        <v>335</v>
+      </c>
       <c r="B31" s="79"/>
       <c r="C31" s="72"/>
       <c r="D31" s="80"/>
@@ -7824,7 +7879,9 @@
       <c r="H31" s="80"/>
       <c r="I31" s="80"/>
       <c r="J31" s="91"/>
-      <c r="K31" s="80"/>
+      <c r="K31" s="80">
+        <v>0</v>
+      </c>
       <c r="L31" s="80"/>
       <c r="M31" s="80"/>
       <c r="N31" s="111"/>
@@ -7837,7 +7894,9 @@
       <c r="R31" s="77"/>
     </row>
     <row r="32" spans="1:23" s="87" customFormat="1">
-      <c r="A32" s="71"/>
+      <c r="A32" s="71" t="s">
+        <v>336</v>
+      </c>
       <c r="B32" s="79"/>
       <c r="C32" s="72"/>
       <c r="D32" s="80"/>
@@ -7847,7 +7906,9 @@
       <c r="H32" s="80"/>
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
+      <c r="K32" s="80">
+        <v>4480</v>
+      </c>
       <c r="L32" s="80"/>
       <c r="M32" s="80"/>
       <c r="N32" s="111"/>
@@ -7855,7 +7916,7 @@
       <c r="P32" s="82"/>
       <c r="Q32" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="R32" s="86"/>
       <c r="S32" s="13"/>
@@ -7954,11 +8015,11 @@
     </row>
     <row r="37" spans="1:19" s="62" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="97">
         <f>SUM(B6:B36)</f>
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="C37" s="98">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7986,15 +8047,15 @@
       </c>
       <c r="I37" s="98">
         <f t="shared" si="1"/>
-        <v>2729</v>
+        <v>2889</v>
       </c>
       <c r="J37" s="98">
         <f t="shared" si="1"/>
-        <v>1635</v>
+        <v>1665</v>
       </c>
       <c r="K37" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="L37" s="98">
         <f t="shared" si="1"/>
@@ -8010,7 +8071,7 @@
       </c>
       <c r="O37" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="P37" s="99">
         <f t="shared" si="1"/>
@@ -8018,10 +8079,10 @@
       </c>
       <c r="Q37" s="100">
         <f>SUM(Q6:Q36)</f>
-        <v>26385</v>
+        <v>40395</v>
       </c>
       <c r="S37" s="224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -8085,7 +8146,7 @@
     </row>
     <row r="44" spans="1:19" s="251" customFormat="1">
       <c r="A44" s="251" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -10022,6 +10083,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -10040,7 +10102,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10053,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="B46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10081,15 +10142,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="425"/>
+      <c r="G1" s="425"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -10182,15 +10243,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="428" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="428"/>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
+      <c r="A2" s="426" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="426"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="426"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -10283,15 +10344,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="429" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="429"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="429"/>
+      <c r="A3" s="427" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -10403,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="257" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="57"/>
       <c r="I4" s="138"/>
@@ -10498,7 +10559,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="258" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="46">
         <v>79890</v>
@@ -10608,7 +10669,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="258" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="46">
         <v>486650</v>
@@ -10718,7 +10779,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="46">
         <v>154590</v>
@@ -10826,7 +10887,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="46">
         <v>114400</v>
@@ -10936,7 +10997,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="177" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="46">
         <v>160340</v>
@@ -11046,7 +11107,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="46">
         <v>126850</v>
@@ -11156,7 +11217,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="177" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="46">
         <v>189210</v>
@@ -11266,7 +11327,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="177" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="46">
         <v>296760</v>
@@ -11376,7 +11437,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="46">
         <v>299260</v>
@@ -11486,7 +11547,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="46">
         <v>185850</v>
@@ -11596,7 +11657,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="46">
         <v>354670</v>
@@ -11706,7 +11767,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="177" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="46">
         <v>129230</v>
@@ -11816,7 +11877,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="46">
         <v>209150</v>
@@ -11926,7 +11987,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="177" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="46">
         <v>1820420</v>
@@ -12036,7 +12097,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="46">
         <v>2706040</v>
@@ -12146,7 +12207,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="177" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="46">
         <v>1010700</v>
@@ -12256,7 +12317,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="177" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B21" s="46">
         <v>649980</v>
@@ -12366,7 +12427,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="177" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="46">
         <v>302440</v>
@@ -12476,7 +12537,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="177" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="46">
         <v>172450</v>
@@ -12586,7 +12647,7 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" s="46">
         <v>133120</v>
@@ -12696,7 +12757,7 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="177" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" s="46">
         <v>157530</v>
@@ -12806,7 +12867,7 @@
     </row>
     <row r="26" spans="1:97">
       <c r="A26" s="177" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="46">
         <v>249340</v>
@@ -12916,7 +12977,7 @@
     </row>
     <row r="27" spans="1:97">
       <c r="A27" s="177" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B27" s="46">
         <v>198110</v>
@@ -13026,7 +13087,7 @@
     </row>
     <row r="28" spans="1:97">
       <c r="A28" s="177" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="46">
         <v>221480</v>
@@ -13135,13 +13196,21 @@
       <c r="CS28" s="133"/>
     </row>
     <row r="29" spans="1:97">
-      <c r="A29" s="177"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="46">
+        <v>354710</v>
+      </c>
+      <c r="C29" s="49">
+        <v>464830</v>
+      </c>
+      <c r="D29" s="46">
+        <v>690</v>
+      </c>
       <c r="E29" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>465520</v>
       </c>
       <c r="F29" s="227"/>
       <c r="G29" s="235"/>
@@ -13548,23 +13617,23 @@
       </c>
       <c r="B33" s="246">
         <f>SUM(B5:B32)</f>
-        <v>10408460</v>
+        <v>10763170</v>
       </c>
       <c r="C33" s="247">
         <f>SUM(C5:C32)</f>
-        <v>3324965</v>
+        <v>3789795</v>
       </c>
       <c r="D33" s="246">
         <f>SUM(D5:D32)</f>
-        <v>25625</v>
+        <v>26315</v>
       </c>
       <c r="E33" s="246">
         <f>SUM(E5:E32)</f>
-        <v>3350590</v>
+        <v>3816110</v>
       </c>
       <c r="F33" s="246">
         <f>B33-E33</f>
-        <v>7057870</v>
+        <v>6947060</v>
       </c>
       <c r="G33" s="248"/>
       <c r="H33" s="134"/>
@@ -13759,12 +13828,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="424" t="s">
+      <c r="B35" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="424"/>
-      <c r="D35" s="424"/>
-      <c r="E35" s="424"/>
+      <c r="C35" s="422"/>
+      <c r="D35" s="422"/>
+      <c r="E35" s="422"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -13860,7 +13929,7 @@
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
       <c r="A36" s="199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="199" t="s">
         <v>21</v>
@@ -13972,19 +14041,19 @@
     </row>
     <row r="37" spans="1:97">
       <c r="A37" s="179" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="389" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="123" t="s">
         <v>234</v>
-      </c>
-      <c r="B37" s="397" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="123" t="s">
-        <v>235</v>
       </c>
       <c r="D37" s="202">
         <v>7640</v>
       </c>
-      <c r="E37" s="398" t="s">
-        <v>274</v>
+      <c r="E37" s="390" t="s">
+        <v>273</v>
       </c>
       <c r="F37" s="129"/>
       <c r="G37" s="134"/>
@@ -14081,19 +14150,19 @@
     </row>
     <row r="38" spans="1:97">
       <c r="A38" s="179" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="326" t="s">
         <v>234</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="328" t="s">
-        <v>235</v>
       </c>
       <c r="D38" s="203">
         <v>5000</v>
       </c>
       <c r="E38" s="171" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F38" s="127"/>
       <c r="G38" s="134"/>
@@ -14190,17 +14259,17 @@
     </row>
     <row r="39" spans="1:97">
       <c r="A39" s="179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="115"/>
       <c r="D39" s="203">
         <v>7000</v>
       </c>
       <c r="E39" s="172" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="127"/>
       <c r="G39" s="134"/>
@@ -14297,19 +14366,19 @@
     </row>
     <row r="40" spans="1:97">
       <c r="A40" s="179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="115" t="s">
         <v>322</v>
-      </c>
-      <c r="C40" s="115" t="s">
-        <v>323</v>
       </c>
       <c r="D40" s="203">
         <v>6000</v>
       </c>
       <c r="E40" s="171" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="127"/>
       <c r="G40" s="140"/>
@@ -14406,23 +14475,23 @@
     </row>
     <row r="41" spans="1:97">
       <c r="A41" s="179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="115" t="s">
         <v>324</v>
-      </c>
-      <c r="C41" s="115" t="s">
-        <v>325</v>
       </c>
       <c r="D41" s="203">
         <v>31020</v>
       </c>
       <c r="E41" s="171" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" s="132"/>
       <c r="G41" s="141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="141"/>
       <c r="I41" s="139"/>
@@ -14517,19 +14586,19 @@
     </row>
     <row r="42" spans="1:97">
       <c r="A42" s="179" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="116" t="s">
+      <c r="C42" s="115" t="s">
         <v>262</v>
-      </c>
-      <c r="C42" s="115" t="s">
-        <v>263</v>
       </c>
       <c r="D42" s="203">
         <v>15000</v>
       </c>
       <c r="E42" s="171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F42" s="133"/>
       <c r="G42" s="142" t="s">
@@ -14633,10 +14702,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="172"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="425"/>
-      <c r="H43" s="425"/>
-      <c r="I43" s="425"/>
-      <c r="J43" s="425"/>
+      <c r="G43" s="423"/>
+      <c r="H43" s="423"/>
+      <c r="I43" s="423"/>
+      <c r="J43" s="423"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -14727,8 +14796,8 @@
     </row>
     <row r="44" spans="1:97" ht="13.5" thickBot="1">
       <c r="A44" s="179"/>
-      <c r="B44" s="321"/>
-      <c r="C44" s="322"/>
+      <c r="B44" s="319"/>
+      <c r="C44" s="320"/>
       <c r="D44" s="203"/>
       <c r="E44" s="171"/>
       <c r="F44" s="130"/>
@@ -14826,33 +14895,33 @@
     </row>
     <row r="45" spans="1:97" ht="13.5" thickBot="1">
       <c r="A45" s="197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="197" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="197" t="s">
+      <c r="D45" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="198" t="s">
         <v>54</v>
-      </c>
-      <c r="D45" s="204" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="198" t="s">
-        <v>55</v>
       </c>
       <c r="F45" s="127"/>
       <c r="G45" s="133"/>
       <c r="H45" s="216" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="212" t="s">
+      <c r="J45" s="212" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="217" t="s">
         <v>58</v>
-      </c>
-      <c r="J45" s="212" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="217" t="s">
-        <v>59</v>
       </c>
       <c r="L45" s="218" t="s">
         <v>24</v>
@@ -14946,30 +15015,30 @@
       <c r="CS45" s="133"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="379" t="s">
+      <c r="A46" s="372" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="380" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="381"/>
-      <c r="D46" s="382">
+      <c r="C46" s="374"/>
+      <c r="D46" s="375">
         <v>61790</v>
       </c>
-      <c r="E46" s="383" t="s">
-        <v>236</v>
+      <c r="E46" s="376" t="s">
+        <v>235</v>
       </c>
       <c r="F46" s="126"/>
       <c r="G46" s="133"/>
       <c r="H46" s="186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="187"/>
       <c r="J46" s="188">
         <v>0</v>
       </c>
       <c r="K46" s="123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L46" s="189">
         <v>0</v>
@@ -15064,30 +15133,30 @@
       <c r="CS46" s="133"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="379" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="384" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="385"/>
-      <c r="D47" s="386">
-        <v>253680</v>
-      </c>
-      <c r="E47" s="387" t="s">
-        <v>333</v>
+      <c r="A47" s="372" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="377" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="378"/>
+      <c r="D47" s="379">
+        <v>247810</v>
+      </c>
+      <c r="E47" s="380" t="s">
+        <v>334</v>
       </c>
       <c r="F47" s="127"/>
       <c r="G47" s="133"/>
       <c r="H47" s="182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I47" s="52"/>
       <c r="J47" s="49">
         <v>22000</v>
       </c>
       <c r="K47" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L47" s="124">
         <v>22000</v>
@@ -15182,30 +15251,30 @@
       <c r="CS47" s="133"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="379" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="388" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="385"/>
-      <c r="D48" s="386">
-        <v>260000</v>
-      </c>
-      <c r="E48" s="387" t="s">
-        <v>331</v>
+      <c r="A48" s="372" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="381" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="378"/>
+      <c r="D48" s="379">
+        <v>270000</v>
+      </c>
+      <c r="E48" s="380" t="s">
+        <v>334</v>
       </c>
       <c r="F48" s="127"/>
       <c r="G48" s="133"/>
       <c r="H48" s="182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I48" s="52"/>
       <c r="J48" s="49">
         <v>0</v>
       </c>
       <c r="K48" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L48" s="124">
         <v>0</v>
@@ -15300,30 +15369,30 @@
       <c r="CS48" s="133"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="379" t="s">
+      <c r="A49" s="372" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="382" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="389" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="385"/>
-      <c r="D49" s="386">
+      <c r="C49" s="378"/>
+      <c r="D49" s="379">
         <v>140750</v>
       </c>
-      <c r="E49" s="387" t="s">
-        <v>326</v>
+      <c r="E49" s="380" t="s">
+        <v>325</v>
       </c>
       <c r="F49" s="127"/>
       <c r="G49" s="133"/>
       <c r="H49" s="182" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="52"/>
       <c r="J49" s="49">
         <v>0</v>
       </c>
       <c r="K49" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L49" s="124">
         <v>0</v>
@@ -15418,30 +15487,30 @@
       <c r="CS49" s="133"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="379" t="s">
+      <c r="A50" s="372" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="389" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="385"/>
-      <c r="D50" s="386">
+      <c r="C50" s="378"/>
+      <c r="D50" s="379">
         <v>361400</v>
       </c>
-      <c r="E50" s="390" t="s">
-        <v>276</v>
+      <c r="E50" s="383" t="s">
+        <v>275</v>
       </c>
       <c r="F50" s="127"/>
       <c r="G50" s="133"/>
       <c r="H50" s="170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="164">
         <v>0</v>
       </c>
       <c r="K50" s="165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L50" s="124">
         <v>0</v>
@@ -15536,30 +15605,30 @@
       <c r="CS50" s="133"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="379" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="388" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="385"/>
-      <c r="D51" s="386">
-        <v>896890</v>
-      </c>
-      <c r="E51" s="387" t="s">
-        <v>286</v>
+      <c r="A51" s="372" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="381" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="378"/>
+      <c r="D51" s="379">
+        <v>823890</v>
+      </c>
+      <c r="E51" s="380" t="s">
+        <v>334</v>
       </c>
       <c r="F51" s="127"/>
       <c r="G51" s="133"/>
       <c r="H51" s="182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" s="52"/>
       <c r="J51" s="49">
         <v>0</v>
       </c>
       <c r="K51" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L51" s="124">
         <v>0</v>
@@ -15654,30 +15723,30 @@
       <c r="CS51" s="133"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="379" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="391" t="s">
-        <v>305</v>
-      </c>
-      <c r="C52" s="385"/>
-      <c r="D52" s="392">
+      <c r="A52" s="372" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="384" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="378"/>
+      <c r="D52" s="385">
         <v>401670</v>
       </c>
-      <c r="E52" s="387" t="s">
-        <v>298</v>
+      <c r="E52" s="380" t="s">
+        <v>297</v>
       </c>
       <c r="F52" s="127"/>
       <c r="G52" s="133"/>
       <c r="H52" s="182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="49">
         <v>0</v>
       </c>
       <c r="K52" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L52" s="124">
         <v>0</v>
@@ -15772,30 +15841,30 @@
       <c r="CS52" s="133"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="379" t="s">
+      <c r="A53" s="372" t="s">
+        <v>311</v>
+      </c>
+      <c r="B53" s="381" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="388" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="385"/>
-      <c r="D53" s="386">
+      <c r="C53" s="378"/>
+      <c r="D53" s="379">
         <v>50000</v>
       </c>
-      <c r="E53" s="390" t="s">
-        <v>308</v>
+      <c r="E53" s="383" t="s">
+        <v>307</v>
       </c>
       <c r="F53" s="127"/>
       <c r="G53" s="133"/>
       <c r="H53" s="182" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I53" s="52"/>
       <c r="J53" s="49">
         <v>0</v>
       </c>
       <c r="K53" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L53" s="124">
         <v>0</v>
@@ -15890,30 +15959,30 @@
       <c r="CS53" s="133"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="379" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="388" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="385"/>
-      <c r="D54" s="386">
+      <c r="A54" s="372" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="381" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="378"/>
+      <c r="D54" s="379">
         <v>65000</v>
       </c>
-      <c r="E54" s="390" t="s">
-        <v>314</v>
+      <c r="E54" s="383" t="s">
+        <v>313</v>
       </c>
       <c r="F54" s="127"/>
       <c r="G54" s="133"/>
       <c r="H54" s="184" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="58"/>
       <c r="J54" s="49">
         <v>0</v>
       </c>
       <c r="K54" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L54" s="124">
         <v>0</v>
@@ -16008,22 +16077,22 @@
       <c r="CS54" s="133"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="379"/>
-      <c r="B55" s="384"/>
-      <c r="C55" s="385"/>
-      <c r="D55" s="386"/>
-      <c r="E55" s="390"/>
+      <c r="A55" s="372"/>
+      <c r="B55" s="377"/>
+      <c r="C55" s="378"/>
+      <c r="D55" s="379"/>
+      <c r="E55" s="383"/>
       <c r="F55" s="127"/>
       <c r="G55" s="133"/>
       <c r="H55" s="182" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I55" s="52"/>
       <c r="J55" s="49">
         <v>85750</v>
       </c>
       <c r="K55" s="166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" s="124">
         <v>85750</v>
@@ -16118,22 +16187,22 @@
       <c r="CS55" s="133"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="393"/>
-      <c r="B56" s="391"/>
-      <c r="C56" s="385"/>
-      <c r="D56" s="386"/>
-      <c r="E56" s="390"/>
+      <c r="A56" s="386"/>
+      <c r="B56" s="384"/>
+      <c r="C56" s="378"/>
+      <c r="D56" s="379"/>
+      <c r="E56" s="383"/>
       <c r="F56" s="127"/>
       <c r="G56" s="133"/>
       <c r="H56" s="182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I56" s="52"/>
       <c r="J56" s="49">
         <v>0</v>
       </c>
       <c r="K56" s="115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L56" s="124">
         <v>0</v>
@@ -16228,30 +16297,30 @@
       <c r="CS56" s="133"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="341" t="s">
+      <c r="A57" s="338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="339" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="343"/>
-      <c r="D57" s="344">
+      <c r="C57" s="340"/>
+      <c r="D57" s="341">
         <v>548780</v>
       </c>
-      <c r="E57" s="345" t="s">
-        <v>290</v>
+      <c r="E57" s="342" t="s">
+        <v>289</v>
       </c>
       <c r="F57" s="127"/>
       <c r="G57" s="133"/>
       <c r="H57" s="182" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="52"/>
       <c r="J57" s="49">
         <v>0</v>
       </c>
       <c r="K57" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L57" s="124">
         <v>0</v>
@@ -16346,30 +16415,30 @@
       <c r="CS57" s="133"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="341" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="342" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="343"/>
-      <c r="D58" s="344">
+      <c r="A58" s="338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="339" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="340"/>
+      <c r="D58" s="341">
         <v>30000</v>
       </c>
-      <c r="E58" s="346" t="s">
-        <v>236</v>
+      <c r="E58" s="343" t="s">
+        <v>235</v>
       </c>
       <c r="F58" s="127"/>
       <c r="G58" s="133"/>
       <c r="H58" s="182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="49">
         <v>17560</v>
       </c>
       <c r="K58" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L58" s="124">
         <v>17560</v>
@@ -16464,30 +16533,30 @@
       <c r="CS58" s="133"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="341" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="342" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="343"/>
-      <c r="D59" s="344">
+      <c r="A59" s="338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="339" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="340"/>
+      <c r="D59" s="341">
         <v>40000</v>
       </c>
-      <c r="E59" s="346" t="s">
-        <v>236</v>
+      <c r="E59" s="343" t="s">
+        <v>235</v>
       </c>
       <c r="F59" s="127"/>
       <c r="G59" s="133"/>
       <c r="H59" s="182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="49">
         <v>0</v>
       </c>
       <c r="K59" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L59" s="124">
         <v>0</v>
@@ -16582,30 +16651,30 @@
       <c r="CS59" s="133"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="341" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="342" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="343"/>
-      <c r="D60" s="344">
+      <c r="A60" s="338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="339" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="340"/>
+      <c r="D60" s="341">
         <v>100000</v>
       </c>
-      <c r="E60" s="346" t="s">
-        <v>308</v>
+      <c r="E60" s="343" t="s">
+        <v>307</v>
       </c>
       <c r="F60" s="127"/>
       <c r="G60" s="133"/>
       <c r="H60" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I60" s="53"/>
       <c r="J60" s="164">
         <v>0</v>
       </c>
       <c r="K60" s="165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L60" s="124">
         <v>0</v>
@@ -16700,30 +16769,30 @@
       <c r="CS60" s="133"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="341" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="347" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="343"/>
-      <c r="D61" s="344">
+      <c r="A61" s="338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="344" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="340"/>
+      <c r="D61" s="341">
         <v>100000</v>
       </c>
-      <c r="E61" s="345" t="s">
-        <v>276</v>
+      <c r="E61" s="342" t="s">
+        <v>275</v>
       </c>
       <c r="F61" s="129"/>
       <c r="G61" s="133"/>
       <c r="H61" s="182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I61" s="52"/>
       <c r="J61" s="49">
         <v>0</v>
       </c>
       <c r="K61" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L61" s="124">
         <v>0</v>
@@ -16818,30 +16887,30 @@
       <c r="CS61" s="133"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="341" t="s">
+      <c r="A62" s="338" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="345" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="348" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="343"/>
-      <c r="D62" s="344">
+      <c r="C62" s="340"/>
+      <c r="D62" s="341">
         <v>50000</v>
       </c>
-      <c r="E62" s="346" t="s">
-        <v>246</v>
+      <c r="E62" s="343" t="s">
+        <v>245</v>
       </c>
       <c r="F62" s="126"/>
       <c r="G62" s="133"/>
       <c r="H62" s="182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I62" s="52"/>
       <c r="J62" s="49">
         <v>0</v>
       </c>
       <c r="K62" s="167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L62" s="124">
         <v>0</v>
@@ -16936,30 +17005,30 @@
       <c r="CS62" s="133"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="341" t="s">
+      <c r="A63" s="338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="339" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="342" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="343"/>
-      <c r="D63" s="344">
+      <c r="C63" s="340"/>
+      <c r="D63" s="341">
         <v>400000</v>
       </c>
-      <c r="E63" s="346" t="s">
-        <v>286</v>
+      <c r="E63" s="343" t="s">
+        <v>285</v>
       </c>
       <c r="F63" s="127"/>
       <c r="G63" s="133"/>
       <c r="H63" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I63" s="53"/>
       <c r="J63" s="164">
         <v>0</v>
       </c>
       <c r="K63" s="165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L63" s="124">
         <v>0</v>
@@ -17054,30 +17123,30 @@
       <c r="CS63" s="133"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="341" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="342" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="343"/>
-      <c r="D64" s="344">
+      <c r="A64" s="338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="339" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="340"/>
+      <c r="D64" s="341">
         <v>70000</v>
       </c>
-      <c r="E64" s="369" t="s">
-        <v>298</v>
+      <c r="E64" s="365" t="s">
+        <v>297</v>
       </c>
       <c r="F64" s="127"/>
       <c r="G64" s="133"/>
       <c r="H64" s="170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I64" s="53"/>
       <c r="J64" s="164">
         <v>0</v>
       </c>
       <c r="K64" s="165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L64" s="124">
         <v>0</v>
@@ -17172,30 +17241,30 @@
       <c r="CS64" s="133"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="341" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="348" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="343"/>
-      <c r="D65" s="344">
+      <c r="A65" s="338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="345" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="340"/>
+      <c r="D65" s="341">
         <v>200000</v>
       </c>
-      <c r="E65" s="345" t="s">
-        <v>240</v>
+      <c r="E65" s="342" t="s">
+        <v>239</v>
       </c>
       <c r="F65" s="127"/>
       <c r="G65" s="133"/>
       <c r="H65" s="182" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I65" s="52"/>
       <c r="J65" s="49">
         <v>0</v>
       </c>
       <c r="K65" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L65" s="124">
         <v>0</v>
@@ -17290,22 +17359,22 @@
       <c r="CS65" s="133"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="341"/>
-      <c r="B66" s="342"/>
-      <c r="C66" s="343"/>
-      <c r="D66" s="344"/>
-      <c r="E66" s="345"/>
+      <c r="A66" s="338"/>
+      <c r="B66" s="339"/>
+      <c r="C66" s="340"/>
+      <c r="D66" s="341"/>
+      <c r="E66" s="342"/>
       <c r="F66" s="127"/>
       <c r="G66" s="133"/>
       <c r="H66" s="182" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I66" s="52"/>
       <c r="J66" s="49">
         <v>0</v>
       </c>
       <c r="K66" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L66" s="124">
         <v>0</v>
@@ -17400,22 +17469,22 @@
       <c r="CS66" s="133"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="341"/>
-      <c r="B67" s="342"/>
-      <c r="C67" s="343"/>
-      <c r="D67" s="344"/>
-      <c r="E67" s="346"/>
+      <c r="A67" s="338"/>
+      <c r="B67" s="339"/>
+      <c r="C67" s="340"/>
+      <c r="D67" s="341"/>
+      <c r="E67" s="343"/>
       <c r="F67" s="127"/>
       <c r="G67" s="133"/>
       <c r="H67" s="182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I67" s="52"/>
       <c r="J67" s="49">
         <v>0</v>
       </c>
       <c r="K67" s="166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L67" s="124">
         <v>0</v>
@@ -17510,30 +17579,30 @@
       <c r="CS67" s="133"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="340" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="336"/>
-      <c r="D68" s="337">
+      <c r="A68" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="333"/>
+      <c r="D68" s="334">
         <v>280080</v>
       </c>
-      <c r="E68" s="338" t="s">
-        <v>290</v>
+      <c r="E68" s="335" t="s">
+        <v>289</v>
       </c>
       <c r="F68" s="127"/>
       <c r="G68" s="133"/>
       <c r="H68" s="182" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68" s="52"/>
       <c r="J68" s="49">
         <v>0</v>
       </c>
       <c r="K68" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L68" s="124">
         <v>0</v>
@@ -17628,32 +17697,32 @@
       <c r="CS68" s="133"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="335" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="336"/>
-      <c r="D69" s="337">
+      <c r="A69" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="332" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="333"/>
+      <c r="D69" s="334">
         <v>78760</v>
       </c>
-      <c r="E69" s="338" t="s">
-        <v>246</v>
+      <c r="E69" s="335" t="s">
+        <v>245</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="133"/>
       <c r="H69" s="182" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="I69" s="52" t="s">
-        <v>152</v>
       </c>
       <c r="J69" s="49">
         <v>30000</v>
       </c>
       <c r="K69" s="115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L69" s="124">
         <v>30000</v>
@@ -17748,32 +17817,32 @@
       <c r="CS69" s="133"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="335" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="336"/>
-      <c r="D70" s="337">
+      <c r="A70" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="332" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="333"/>
+      <c r="D70" s="334">
         <v>51120</v>
       </c>
-      <c r="E70" s="349" t="s">
-        <v>233</v>
+      <c r="E70" s="346" t="s">
+        <v>232</v>
       </c>
       <c r="F70" s="127"/>
       <c r="G70" s="133"/>
       <c r="H70" s="170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I70" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J70" s="164">
         <v>6100</v>
       </c>
       <c r="K70" s="165" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L70" s="124">
         <v>6100</v>
@@ -17868,18 +17937,18 @@
       <c r="CS70" s="133"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="334" t="s">
+      <c r="A71" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="332" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="335" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="336"/>
-      <c r="D71" s="337">
-        <v>381420</v>
-      </c>
-      <c r="E71" s="349" t="s">
-        <v>333</v>
+      <c r="C71" s="333"/>
+      <c r="D71" s="334">
+        <v>426580</v>
+      </c>
+      <c r="E71" s="346" t="s">
+        <v>334</v>
       </c>
       <c r="F71" s="129"/>
       <c r="G71" s="133"/>
@@ -17978,18 +18047,18 @@
       <c r="CS71" s="133"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="335" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="336"/>
-      <c r="D72" s="373">
-        <v>416010</v>
-      </c>
-      <c r="E72" s="339" t="s">
-        <v>333</v>
+      <c r="A72" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="333"/>
+      <c r="D72" s="369">
+        <v>367610</v>
+      </c>
+      <c r="E72" s="336" t="s">
+        <v>334</v>
       </c>
       <c r="F72" s="129"/>
       <c r="G72" s="133"/>
@@ -18088,18 +18157,18 @@
       <c r="CS72" s="133"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="335" t="s">
-        <v>272</v>
-      </c>
-      <c r="C73" s="336"/>
-      <c r="D73" s="373">
-        <v>709170</v>
-      </c>
-      <c r="E73" s="349" t="s">
-        <v>333</v>
+      <c r="A73" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="332" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="333"/>
+      <c r="D73" s="369">
+        <v>670470</v>
+      </c>
+      <c r="E73" s="346" t="s">
+        <v>334</v>
       </c>
       <c r="F73" s="129"/>
       <c r="G73" s="133"/>
@@ -18198,18 +18267,18 @@
       <c r="CS73" s="133"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="335" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="336"/>
-      <c r="D74" s="373">
+      <c r="A74" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="332" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="333"/>
+      <c r="D74" s="369">
         <v>758400</v>
       </c>
-      <c r="E74" s="339" t="s">
-        <v>333</v>
+      <c r="E74" s="336" t="s">
+        <v>332</v>
       </c>
       <c r="F74" s="129"/>
       <c r="G74" s="133"/>
@@ -18308,18 +18377,18 @@
       <c r="CS74" s="133"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="335" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="336"/>
-      <c r="D75" s="337">
+      <c r="A75" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="332" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="333"/>
+      <c r="D75" s="334">
         <v>110840</v>
       </c>
-      <c r="E75" s="339" t="s">
-        <v>286</v>
+      <c r="E75" s="336" t="s">
+        <v>285</v>
       </c>
       <c r="F75" s="127"/>
       <c r="G75" s="133"/>
@@ -18418,18 +18487,18 @@
       <c r="CS75" s="133"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="335" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="336"/>
-      <c r="D76" s="337">
+      <c r="A76" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="332" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="333"/>
+      <c r="D76" s="334">
         <v>108690</v>
       </c>
-      <c r="E76" s="339" t="s">
-        <v>290</v>
+      <c r="E76" s="336" t="s">
+        <v>289</v>
       </c>
       <c r="F76" s="127"/>
       <c r="G76" s="133"/>
@@ -18528,18 +18597,18 @@
       <c r="CS76" s="133"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="335" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="336"/>
-      <c r="D77" s="337">
+      <c r="A77" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="332" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="333"/>
+      <c r="D77" s="334">
         <v>128480</v>
       </c>
-      <c r="E77" s="339" t="s">
-        <v>290</v>
+      <c r="E77" s="336" t="s">
+        <v>289</v>
       </c>
       <c r="F77" s="127"/>
       <c r="G77" s="133"/>
@@ -18638,18 +18707,18 @@
       <c r="CS77" s="133"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="334" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="335" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="336"/>
-      <c r="D78" s="337">
+      <c r="A78" s="331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="332" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="333"/>
+      <c r="D78" s="334">
         <v>91690</v>
       </c>
-      <c r="E78" s="339" t="s">
-        <v>298</v>
+      <c r="E78" s="336" t="s">
+        <v>297</v>
       </c>
       <c r="F78" s="127"/>
       <c r="G78" s="133"/>
@@ -18748,11 +18817,11 @@
       <c r="CS78" s="133"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="334"/>
-      <c r="B79" s="335"/>
-      <c r="C79" s="336"/>
-      <c r="D79" s="337"/>
-      <c r="E79" s="338"/>
+      <c r="A79" s="331"/>
+      <c r="B79" s="332"/>
+      <c r="C79" s="333"/>
+      <c r="D79" s="334"/>
+      <c r="E79" s="335"/>
       <c r="F79" s="127"/>
       <c r="G79" s="133"/>
       <c r="H79" s="182"/>
@@ -18850,11 +18919,11 @@
       <c r="CS79" s="133"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="334"/>
-      <c r="B80" s="335"/>
-      <c r="C80" s="336"/>
-      <c r="D80" s="337"/>
-      <c r="E80" s="339"/>
+      <c r="A80" s="331"/>
+      <c r="B80" s="332"/>
+      <c r="C80" s="333"/>
+      <c r="D80" s="334"/>
+      <c r="E80" s="336"/>
       <c r="F80" s="127" t="s">
         <v>13</v>
       </c>
@@ -22630,7 +22699,7 @@
     <row r="117" spans="1:97">
       <c r="A117" s="221"/>
       <c r="B117" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C117" s="115"/>
       <c r="D117" s="205">
@@ -22836,14 +22905,14 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="422" t="s">
+      <c r="A119" s="420" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="423"/>
-      <c r="C119" s="426"/>
+      <c r="B119" s="421"/>
+      <c r="C119" s="424"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
-        <v>7219280</v>
+        <v>7108470</v>
       </c>
       <c r="E119" s="201"/>
       <c r="F119" s="133"/>
@@ -23045,14 +23114,14 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="422" t="s">
+      <c r="A121" s="420" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="423"/>
-      <c r="C121" s="423"/>
+      <c r="B121" s="421"/>
+      <c r="C121" s="421"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
-        <v>7219280</v>
+        <v>7108470</v>
       </c>
       <c r="E121" s="201"/>
       <c r="F121" s="133"/>
@@ -34284,7 +34353,7 @@
   <dimension ref="A1:R222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34307,51 +34376,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="432" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="434"/>
+      <c r="A1" s="430" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="432"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
-      <c r="K1" s="430"/>
+      <c r="I1" s="428"/>
+      <c r="J1" s="428"/>
+      <c r="K1" s="428"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="441" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="443"/>
+      <c r="A2" s="439" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="441"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="255" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="255" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="255" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="255" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="435" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="436"/>
-      <c r="C3" s="436"/>
-      <c r="D3" s="436"/>
-      <c r="E3" s="437"/>
+      <c r="A3" s="433" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="435"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="394">
+        <v>30000</v>
+      </c>
+      <c r="K3" s="394">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="394">
+        <f>J3+K3</f>
+        <v>40000</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -34359,32 +34451,32 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="444" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="446"/>
+      <c r="A4" s="442" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="444"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="255" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="255" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="255" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="255" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="I4" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="394">
+        <v>9000</v>
+      </c>
+      <c r="K4" s="394">
+        <v>5900</v>
+      </c>
+      <c r="L4" s="394">
+        <f t="shared" ref="L4:L12" si="0">J4+K4</f>
+        <v>14900</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -34392,7 +34484,7 @@
     </row>
     <row r="5" spans="1:18" ht="21.75">
       <c r="A5" s="264" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="239">
         <v>13000000</v>
@@ -34402,7 +34494,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="263">
-        <v>8727290</v>
+        <v>9299600</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="253">
@@ -34410,22 +34502,21 @@
       </c>
       <c r="H5" s="253"/>
       <c r="I5" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="J5" s="304">
-        <v>30000</v>
-      </c>
-      <c r="K5" s="304">
+        <v>145</v>
+      </c>
+      <c r="J5" s="394">
+        <v>24500</v>
+      </c>
+      <c r="K5" s="394">
         <v>10000</v>
       </c>
-      <c r="L5" s="304">
-        <f>J5+K5</f>
-        <v>40000</v>
+      <c r="L5" s="394">
+        <f t="shared" si="0"/>
+        <v>34500</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>215</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -34436,36 +34527,37 @@
         <v>6</v>
       </c>
       <c r="B6" s="239">
-        <v>221110</v>
+        <v>224060</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="38" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="E6" s="263">
-        <v>330161</v>
+        <v>90000</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="362" t="s">
-        <v>309</v>
+      <c r="G6" s="359" t="s">
+        <v>308</v>
       </c>
       <c r="H6" s="250"/>
       <c r="I6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="394">
+        <v>29500</v>
+      </c>
+      <c r="K6" s="394">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="394">
+        <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="304">
-        <v>9000</v>
-      </c>
-      <c r="K6" s="304">
-        <v>5900</v>
-      </c>
-      <c r="L6" s="304">
-        <f t="shared" ref="L6:L9" si="0">J6+K6</f>
-        <v>14900</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>122</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -34474,26 +34566,33 @@
       <c r="A7" s="264"/>
       <c r="B7" s="239"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="263"/>
+      <c r="D7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="472">
+        <v>643931</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="361"/>
+      <c r="G7" s="358"/>
       <c r="H7" s="250"/>
-      <c r="I7" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="304">
-        <v>24500</v>
-      </c>
-      <c r="K7" s="304">
+      <c r="I7" s="394" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="394">
+        <v>35000</v>
+      </c>
+      <c r="K7" s="394">
         <v>10000</v>
       </c>
-      <c r="L7" s="304">
+      <c r="L7" s="394">
         <f t="shared" si="0"/>
-        <v>34500</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>216</v>
+        <v>45000</v>
+      </c>
+      <c r="M7" s="394" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -34503,28 +34602,28 @@
       <c r="A8" s="264"/>
       <c r="B8" s="239"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="367"/>
+      <c r="D8" s="363"/>
       <c r="E8" s="263"/>
       <c r="F8" s="7"/>
       <c r="G8" s="231"/>
       <c r="H8" s="231"/>
-      <c r="I8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="304">
-        <v>29500</v>
-      </c>
-      <c r="K8" s="304">
+      <c r="I8" s="394" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394">
         <v>10000</v>
       </c>
-      <c r="L8" s="304">
+      <c r="L8" s="394">
         <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>10000</v>
+      </c>
+      <c r="M8" s="394" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -34532,39 +34631,37 @@
     </row>
     <row r="9" spans="1:18" ht="23.25">
       <c r="A9" s="262" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="239">
-        <v>26385</v>
+        <v>35395</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="367" t="s">
+      <c r="D9" s="363" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="285">
-        <v>7219280</v>
+        <v>7108470</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="108"/>
       <c r="H9" s="108"/>
-      <c r="I9" s="304" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="304">
-        <v>35000</v>
-      </c>
-      <c r="K9" s="304">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="304">
+      <c r="I9" s="394" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="394"/>
+      <c r="K9" s="394">
+        <v>11770</v>
+      </c>
+      <c r="L9" s="394">
         <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="M9" s="304" t="s">
-        <v>216</v>
+        <v>11770</v>
+      </c>
+      <c r="M9" s="394" t="s">
+        <v>222</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -34573,37 +34670,34 @@
     </row>
     <row r="10" spans="1:18" ht="23.25">
       <c r="A10" s="262" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="239">
         <v>0</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="367" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="324">
-        <v>998564</v>
+      <c r="D10" s="363" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="322">
+        <v>2591484</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="I10" s="365" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="365"/>
-      <c r="K10" s="365">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="365">
-        <f t="shared" ref="L10:L11" si="1">J10+K10</f>
-        <v>10000</v>
-      </c>
-      <c r="M10" s="365" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>282</v>
+      <c r="I10" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="394">
+        <v>19250</v>
+      </c>
+      <c r="K10" s="394"/>
+      <c r="L10" s="394">
+        <v>19250</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -34611,12 +34705,12 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="376" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="377">
+      <c r="A11" s="397" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="398">
         <f>B6-B9</f>
-        <v>194725</v>
+        <v>188665</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
@@ -34624,23 +34718,11 @@
       <c r="F11" s="7"/>
       <c r="G11" s="231"/>
       <c r="H11" s="231"/>
-      <c r="I11" s="394" t="s">
-        <v>321</v>
-      </c>
-      <c r="J11" s="304"/>
-      <c r="K11" s="304">
-        <v>11770</v>
-      </c>
-      <c r="L11" s="304">
-        <f t="shared" si="1"/>
-        <v>11770</v>
-      </c>
-      <c r="M11" s="304" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="I11" s="471"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="394"/>
+      <c r="M11" s="31"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -34648,58 +34730,60 @@
     </row>
     <row r="12" spans="1:18" ht="21.75">
       <c r="A12" s="264" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="239">
         <v>67030</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="326"/>
-      <c r="E12" s="327"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="325"/>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="231"/>
       <c r="H12" s="232"/>
-      <c r="I12" s="304"/>
-      <c r="J12" s="304"/>
-      <c r="K12" s="304"/>
-      <c r="L12" s="304"/>
-      <c r="M12" s="304"/>
-      <c r="N12" s="7"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="394">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="31"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="323" customFormat="1" ht="21.75">
-      <c r="A13" s="378" t="s">
+    <row r="13" spans="1:18" s="321" customFormat="1" ht="21.75">
+      <c r="A13" s="395" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="239">
+      <c r="B13" s="396">
         <f>B11+B12</f>
-        <v>261755</v>
+        <v>255695</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="297" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="296">
-        <v>141670</v>
+      <c r="D13" s="296" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="295">
+        <v>160920</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="431" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="431"/>
-      <c r="K13" s="431"/>
-      <c r="L13" s="289">
-        <f>SUM(L5:L12)</f>
-        <v>195670</v>
-      </c>
-      <c r="M13" s="289"/>
+      <c r="I13" s="429" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="393">
+        <f>SUM(L3:L12)</f>
+        <v>214920</v>
+      </c>
+      <c r="M13" s="393"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -34710,20 +34794,20 @@
       <c r="A14" s="264"/>
       <c r="B14" s="239"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="297" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="296">
+      <c r="D14" s="296" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="295">
         <v>213170</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="298"/>
+      <c r="G14" s="297"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="447" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="447"/>
-      <c r="K14" s="447"/>
+      <c r="I14" s="445" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="445"/>
+      <c r="K14" s="445"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -34735,32 +34819,32 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="376" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="377">
-        <v>4500000</v>
+      <c r="A15" s="395" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="396">
+        <v>7000000</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="297" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="296">
-        <v>55250</v>
+      <c r="D15" s="296" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="295">
+        <v>71750</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="299"/>
+      <c r="G15" s="298"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="431" t="s">
-        <v>244</v>
-      </c>
-      <c r="J15" s="431"/>
-      <c r="K15" s="431"/>
-      <c r="L15" s="332">
+      <c r="I15" s="429" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="429"/>
+      <c r="K15" s="429"/>
+      <c r="L15" s="393">
         <f>L13-L14</f>
-        <v>141670</v>
-      </c>
-      <c r="M15" s="332"/>
+        <v>160920</v>
+      </c>
+      <c r="M15" s="393"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -34771,15 +34855,15 @@
       <c r="A16" s="264"/>
       <c r="B16" s="239"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="297" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="296">
+      <c r="D16" s="296" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="295">
         <v>9340</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="353"/>
+      <c r="H16" s="350"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -34792,7 +34876,7 @@
       </c>
       <c r="B17" s="240">
         <f>B5+B6-B9+B15</f>
-        <v>17694725</v>
+        <v>20188665</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
@@ -34800,14 +34884,14 @@
       </c>
       <c r="E17" s="266">
         <f>SUM(E5:E16)</f>
-        <v>17694725</v>
+        <v>20188665</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="109">
         <f>B17-E17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="353"/>
+      <c r="H17" s="350"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -34824,7 +34908,7 @@
       <c r="E18" s="267"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="353"/>
+      <c r="H18" s="350"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -34832,13 +34916,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="438" t="s">
+      <c r="A19" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="439"/>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
-      <c r="E19" s="440"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="438"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34850,16 +34934,16 @@
     </row>
     <row r="20" spans="1:18" ht="21.75">
       <c r="A20" s="273" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="274">
         <v>61790</v>
       </c>
       <c r="C20" s="275"/>
-      <c r="D20" s="329" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="330">
+      <c r="D20" s="327" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="328">
         <v>280080</v>
       </c>
       <c r="F20" s="5"/>
@@ -34873,14 +34957,14 @@
     </row>
     <row r="21" spans="1:18" ht="21.75">
       <c r="A21" s="271" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="260">
         <v>100000</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="252" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="268">
         <v>110840</v>
@@ -34895,14 +34979,14 @@
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1">
       <c r="A22" s="269" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="43">
         <v>548780</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="252" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="268">
         <v>78760</v>
@@ -34915,14 +34999,14 @@
     </row>
     <row r="23" spans="1:18" ht="21.75">
       <c r="A23" s="270" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="117">
         <v>30000</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="252" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="268">
         <v>51120</v>
@@ -34935,14 +35019,14 @@
     </row>
     <row r="24" spans="1:18" ht="21.75">
       <c r="A24" s="270" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="117">
         <v>40000</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="252" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E24" s="268">
         <v>108690</v>
@@ -34955,17 +35039,17 @@
     </row>
     <row r="25" spans="1:18" ht="21.75">
       <c r="A25" s="270" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="117">
         <v>100000</v>
       </c>
       <c r="C25" s="118"/>
       <c r="D25" s="252" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="268">
-        <v>381420</v>
+        <v>426580</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -34975,17 +35059,17 @@
     </row>
     <row r="26" spans="1:18" ht="21.75">
       <c r="A26" s="272" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="117">
         <v>235760</v>
       </c>
       <c r="C26" s="118"/>
       <c r="D26" s="252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="268">
-        <v>416010</v>
+        <v>367610</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -34999,14 +35083,14 @@
     </row>
     <row r="27" spans="1:18" ht="21.75">
       <c r="A27" s="269" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="43">
         <v>50000</v>
       </c>
       <c r="C27" s="118"/>
       <c r="D27" s="252" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E27" s="268">
         <v>91690</v>
@@ -35023,14 +35107,14 @@
     </row>
     <row r="28" spans="1:18" ht="21.75">
       <c r="A28" s="277" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="278">
         <v>50000</v>
       </c>
       <c r="C28" s="279"/>
       <c r="D28" s="280" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E28" s="281">
         <v>31020</v>
@@ -35046,16 +35130,16 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" s="366" customFormat="1" ht="21.75">
+    <row r="29" spans="1:18" s="362" customFormat="1" ht="21.75">
       <c r="A29" s="277" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="278">
         <v>140750</v>
       </c>
       <c r="C29" s="279"/>
       <c r="D29" s="280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29" s="281">
         <v>128480</v>
@@ -35071,16 +35155,16 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" s="368" customFormat="1" ht="21.75">
+    <row r="30" spans="1:18" s="364" customFormat="1" ht="21.75">
       <c r="A30" s="277" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="278">
         <v>250000</v>
       </c>
       <c r="C30" s="279"/>
       <c r="D30" s="280" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="281">
         <v>709170</v>
@@ -35096,18 +35180,18 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" s="368" customFormat="1" ht="21.75">
+    <row r="31" spans="1:18" s="364" customFormat="1" ht="21.75">
       <c r="A31" s="277" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="278">
-        <v>896890</v>
+        <v>823890</v>
       </c>
       <c r="C31" s="279"/>
-      <c r="D31" s="370" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="371">
+      <c r="D31" s="366" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="367">
         <v>758400</v>
       </c>
       <c r="I31" s="7"/>
@@ -35121,16 +35205,16 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" s="374" customFormat="1" ht="21.75">
+    <row r="32" spans="1:18" s="370" customFormat="1" ht="21.75">
       <c r="A32" s="277" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" s="278">
         <v>401670</v>
       </c>
       <c r="C32" s="279"/>
       <c r="D32" s="280" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="281">
         <v>400000</v>
@@ -35148,14 +35232,14 @@
     </row>
     <row r="33" spans="1:18" ht="21.75">
       <c r="A33" s="277" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="278">
         <v>361400</v>
       </c>
       <c r="C33" s="279"/>
       <c r="D33" s="280" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="281">
         <v>200000</v>
@@ -35172,17 +35256,17 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A34" s="372" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="331">
+      <c r="A34" s="368" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="329">
         <v>15000</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="399" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="400">
+      <c r="C34" s="318"/>
+      <c r="D34" s="391" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="392">
         <v>70000</v>
       </c>
       <c r="I34" s="7"/>
@@ -37989,7 +38073,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="319" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="317" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -38001,161 +38085,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="463"/>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
+      <c r="A1" s="451"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="448" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="472"/>
-      <c r="C2" s="295">
+      <c r="A2" s="464" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="465"/>
+      <c r="C2" s="294">
         <f>C83</f>
         <v>50500</v>
       </c>
-      <c r="D2" s="315"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="448" t="s">
+      <c r="A3" s="464" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="470"/>
+      <c r="C3" s="294">
+        <v>53000</v>
+      </c>
+      <c r="D3" s="314"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" thickBot="1">
+      <c r="A4" s="464" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="449"/>
-      <c r="C3" s="295">
-        <v>53000</v>
-      </c>
-      <c r="D3" s="316"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="448" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="449"/>
-      <c r="C4" s="309">
+      <c r="B4" s="470"/>
+      <c r="C4" s="307">
         <f>C2-C3</f>
         <v>-2500</v>
       </c>
-      <c r="D4" s="316"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="305"/>
-      <c r="G4" s="305"/>
-      <c r="H4" s="305"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
-      <c r="D5" s="463"/>
-      <c r="E5" s="463"/>
-      <c r="F5" s="463"/>
-      <c r="G5" s="463"/>
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
+      <c r="A5" s="451"/>
+      <c r="B5" s="451"/>
+      <c r="C5" s="451"/>
+      <c r="D5" s="451"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="451"/>
+      <c r="G5" s="451"/>
+      <c r="H5" s="451"/>
+      <c r="I5" s="451"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="255" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="255" t="s">
-        <v>90</v>
-      </c>
       <c r="C6" s="255" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="317" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="315" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="255" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="255" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="300" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="292" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="301" t="s">
-        <v>38</v>
+      <c r="G6" s="299" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="291" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="300" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="276" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="283" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="276">
         <v>1000</v>
       </c>
       <c r="D7" s="284"/>
       <c r="E7" s="282"/>
-      <c r="G7" s="450">
+      <c r="G7" s="454">
         <v>44684</v>
       </c>
-      <c r="H7" s="290" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="452">
+      <c r="H7" s="289" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="457">
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="276" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="276">
         <v>3000</v>
       </c>
       <c r="D8" s="284"/>
       <c r="E8" s="282"/>
-      <c r="G8" s="450"/>
-      <c r="H8" s="290" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="452"/>
+      <c r="G8" s="454"/>
+      <c r="H8" s="289" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="457"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="276" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="283" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" s="283" t="s">
-        <v>113</v>
       </c>
       <c r="C9" s="276">
         <v>500</v>
       </c>
       <c r="D9" s="284"/>
       <c r="E9" s="282"/>
-      <c r="G9" s="451"/>
-      <c r="H9" s="291" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="453"/>
+      <c r="G9" s="455"/>
+      <c r="H9" s="290" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="458"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="276" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="283"/>
       <c r="C10" s="276">
@@ -38163,19 +38247,19 @@
       </c>
       <c r="D10" s="284"/>
       <c r="E10" s="282"/>
-      <c r="G10" s="450">
+      <c r="G10" s="454">
         <v>44684</v>
       </c>
-      <c r="H10" s="290" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="452">
+      <c r="H10" s="289" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="457">
         <v>5500</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11" s="276" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="283"/>
       <c r="C11" s="276">
@@ -38183,15 +38267,15 @@
       </c>
       <c r="D11" s="284"/>
       <c r="E11" s="282"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="290" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="452"/>
+      <c r="G11" s="454"/>
+      <c r="H11" s="289" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="457"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="283"/>
       <c r="C12" s="276">
@@ -38199,11 +38283,11 @@
       </c>
       <c r="D12" s="284"/>
       <c r="E12" s="282"/>
-      <c r="G12" s="451"/>
-      <c r="H12" s="291" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="453"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="290" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="458"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="276"/>
@@ -38211,13 +38295,13 @@
       <c r="C13" s="276"/>
       <c r="D13" s="284"/>
       <c r="E13" s="282"/>
-      <c r="G13" s="450">
+      <c r="G13" s="454">
         <v>44684</v>
       </c>
-      <c r="H13" s="290" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="452">
+      <c r="H13" s="289" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="457">
         <v>5000</v>
       </c>
     </row>
@@ -38227,11 +38311,11 @@
       <c r="C14" s="254"/>
       <c r="D14" s="284"/>
       <c r="E14" s="282"/>
-      <c r="G14" s="450"/>
-      <c r="H14" s="290" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="452"/>
+      <c r="G14" s="454"/>
+      <c r="H14" s="289" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="457"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="276"/>
@@ -38239,385 +38323,385 @@
       <c r="C15" s="276"/>
       <c r="D15" s="284"/>
       <c r="E15" s="282"/>
-      <c r="G15" s="451"/>
-      <c r="H15" s="291" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="453"/>
+      <c r="G15" s="455"/>
+      <c r="H15" s="290" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="458"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="284" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="254">
         <v>3000</v>
       </c>
       <c r="D16" s="284"/>
       <c r="E16" s="282"/>
-      <c r="G16" s="450">
+      <c r="G16" s="454">
         <v>44684</v>
       </c>
-      <c r="H16" s="290" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" s="452">
+      <c r="H16" s="289" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="457">
         <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="284" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="254">
         <v>500</v>
       </c>
       <c r="D17" s="284"/>
       <c r="E17" s="282"/>
-      <c r="G17" s="450"/>
-      <c r="H17" s="290" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="452"/>
+      <c r="G17" s="454"/>
+      <c r="H17" s="289" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="457"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="254" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="284" t="s">
         <v>128</v>
-      </c>
-      <c r="B18" s="284" t="s">
-        <v>129</v>
       </c>
       <c r="C18" s="254">
         <v>1500</v>
       </c>
       <c r="D18" s="284"/>
       <c r="E18" s="282"/>
-      <c r="G18" s="451"/>
-      <c r="H18" s="291" t="s">
-        <v>190</v>
-      </c>
-      <c r="I18" s="452"/>
+      <c r="G18" s="455"/>
+      <c r="H18" s="290" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="457"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="254" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="284" t="s">
         <v>132</v>
-      </c>
-      <c r="B19" s="284" t="s">
-        <v>133</v>
       </c>
       <c r="C19" s="254">
         <v>1500</v>
       </c>
       <c r="D19" s="284"/>
       <c r="E19" s="282"/>
-      <c r="G19" s="450" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="290" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" s="466">
+      <c r="G19" s="454" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="289" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="456">
         <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="254" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="284" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="254">
         <v>1500</v>
       </c>
       <c r="D20" s="284"/>
       <c r="E20" s="282"/>
-      <c r="G20" s="450"/>
-      <c r="H20" s="290" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="452"/>
+      <c r="G20" s="454"/>
+      <c r="H20" s="289" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="457"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="254" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="284" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="284" t="s">
-        <v>139</v>
       </c>
       <c r="C21" s="254">
         <v>1000</v>
       </c>
       <c r="D21" s="284"/>
       <c r="E21" s="282"/>
-      <c r="G21" s="451"/>
-      <c r="H21" s="291" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" s="453"/>
+      <c r="G21" s="455"/>
+      <c r="H21" s="290" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="458"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="254" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="284" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="254">
         <v>1500</v>
       </c>
       <c r="D22" s="284"/>
       <c r="E22" s="282"/>
-      <c r="G22" s="450" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="290" t="s">
-        <v>188</v>
-      </c>
-      <c r="I22" s="452">
+      <c r="G22" s="454" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="289" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="457">
         <v>7500</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="254" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="254">
         <v>1000</v>
       </c>
       <c r="D23" s="284"/>
       <c r="E23" s="282"/>
-      <c r="G23" s="450"/>
-      <c r="H23" s="290" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="452"/>
+      <c r="G23" s="454"/>
+      <c r="H23" s="289" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="457"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="254" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="284" t="s">
         <v>143</v>
-      </c>
-      <c r="B24" s="284" t="s">
-        <v>144</v>
       </c>
       <c r="C24" s="254">
         <v>500</v>
       </c>
       <c r="D24" s="284"/>
       <c r="E24" s="282"/>
-      <c r="G24" s="451"/>
-      <c r="H24" s="291" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="453"/>
+      <c r="G24" s="455"/>
+      <c r="H24" s="290" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="458"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="254" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="284" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="254">
         <v>3000</v>
       </c>
       <c r="D25" s="284"/>
       <c r="E25" s="282"/>
-      <c r="G25" s="450" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="290" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="452">
+      <c r="G25" s="454" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="289" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="457">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="254" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="254">
         <v>1000</v>
       </c>
       <c r="D26" s="284"/>
       <c r="E26" s="282"/>
-      <c r="G26" s="450"/>
-      <c r="H26" s="290" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" s="452"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="289" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="457"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="254" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="284" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="254">
         <v>1000</v>
       </c>
       <c r="D27" s="284"/>
       <c r="E27" s="282"/>
-      <c r="G27" s="451"/>
-      <c r="H27" s="291" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="453"/>
+      <c r="G27" s="455"/>
+      <c r="H27" s="290" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="458"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="254" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="284" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="284" t="s">
-        <v>149</v>
       </c>
       <c r="C28" s="254">
         <v>1000</v>
       </c>
       <c r="D28" s="284"/>
       <c r="E28" s="282"/>
-      <c r="G28" s="467" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="293" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="469">
+      <c r="G28" s="459" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="461">
         <v>-2000</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="254" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="284" t="s">
         <v>154</v>
-      </c>
-      <c r="B29" s="284" t="s">
-        <v>155</v>
       </c>
       <c r="C29" s="254">
         <v>1500</v>
       </c>
-      <c r="D29" s="318" t="s">
-        <v>161</v>
+      <c r="D29" s="316" t="s">
+        <v>160</v>
       </c>
       <c r="E29" s="282">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="467"/>
-      <c r="H29" s="293" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="470"/>
+      <c r="G29" s="459"/>
+      <c r="H29" s="292" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="462"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="284" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="254">
         <v>4500</v>
       </c>
       <c r="D30" s="284" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" s="282"/>
-      <c r="G30" s="468"/>
-      <c r="H30" s="294" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="471"/>
+      <c r="G30" s="460"/>
+      <c r="H30" s="293" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="463"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="254" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="284" t="s">
         <v>164</v>
-      </c>
-      <c r="B31" s="284" t="s">
-        <v>165</v>
       </c>
       <c r="C31" s="254">
         <v>1500</v>
       </c>
       <c r="D31" s="284" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="282"/>
-      <c r="G31" s="464" t="s">
-        <v>193</v>
-      </c>
-      <c r="H31" s="465"/>
-      <c r="I31" s="306">
+      <c r="G31" s="452" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="453"/>
+      <c r="I31" s="304">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="254" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="254" t="s">
         <v>166</v>
-      </c>
-      <c r="B32" s="254" t="s">
-        <v>167</v>
       </c>
       <c r="C32" s="254">
         <v>1000</v>
       </c>
       <c r="D32" s="284" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="282"/>
-      <c r="G32" s="461" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="462"/>
-      <c r="I32" s="307">
+      <c r="G32" s="468" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="469"/>
+      <c r="I32" s="305">
         <f>I52</f>
         <v>37500</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" thickBot="1">
       <c r="A33" s="254" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="254" t="s">
         <v>169</v>
-      </c>
-      <c r="B33" s="254" t="s">
-        <v>170</v>
       </c>
       <c r="C33" s="254">
         <v>500</v>
       </c>
       <c r="D33" s="284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="282">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="459" t="s">
-        <v>220</v>
-      </c>
-      <c r="H33" s="460"/>
-      <c r="I33" s="308">
+      <c r="G33" s="466" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="467"/>
+      <c r="I33" s="306">
         <f>I31-I32</f>
         <v>15500</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="254" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="254" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="254">
         <v>1500</v>
@@ -38627,10 +38711,10 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" thickBot="1">
       <c r="A35" s="254" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="254" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="254">
         <v>3000</v>
@@ -38640,164 +38724,164 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="254" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="254" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="254">
         <v>1500</v>
       </c>
       <c r="D36" s="284" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="282">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="456" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="457"/>
-      <c r="I36" s="458"/>
-      <c r="K36" s="456" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" s="457"/>
-      <c r="M36" s="458"/>
+      <c r="G36" s="446" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="447"/>
+      <c r="I36" s="448"/>
+      <c r="K36" s="446" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="447"/>
+      <c r="M36" s="448"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="254" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="254" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="254">
         <v>500</v>
       </c>
       <c r="D37" s="284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="282"/>
-      <c r="G37" s="358" t="s">
+      <c r="G37" s="355" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="255" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="359" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="358" t="s">
+      <c r="I37" s="356" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="355" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="255" t="s">
-        <v>90</v>
-      </c>
-      <c r="M37" s="359" t="s">
-        <v>38</v>
+      <c r="M37" s="356" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="254">
         <v>500</v>
       </c>
       <c r="D38" s="284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="282">
         <v>354551894521776</v>
       </c>
-      <c r="G38" s="310" t="s">
+      <c r="G38" s="308" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="288" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="288" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" s="312">
+      <c r="I38" s="310">
         <v>12000</v>
       </c>
-      <c r="K38" s="310" t="s">
+      <c r="K38" s="308" t="s">
+        <v>179</v>
+      </c>
+      <c r="L38" s="288" t="s">
         <v>180</v>
       </c>
-      <c r="L38" s="288" t="s">
-        <v>181</v>
-      </c>
-      <c r="M38" s="312">
+      <c r="M38" s="310">
         <v>8000</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="254" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="254" t="s">
         <v>177</v>
-      </c>
-      <c r="B39" s="254" t="s">
-        <v>178</v>
       </c>
       <c r="C39" s="254">
         <v>500</v>
       </c>
       <c r="D39" s="284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="282">
         <v>354551894521958</v>
       </c>
-      <c r="G39" s="310" t="s">
-        <v>246</v>
+      <c r="G39" s="308" t="s">
+        <v>245</v>
       </c>
       <c r="H39" s="276" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="310">
+        <v>6500</v>
+      </c>
+      <c r="K39" s="308" t="s">
         <v>250</v>
       </c>
-      <c r="I39" s="312">
-        <v>6500</v>
-      </c>
-      <c r="K39" s="310" t="s">
-        <v>251</v>
-      </c>
       <c r="L39" s="276" t="s">
-        <v>181</v>
-      </c>
-      <c r="M39" s="312">
+        <v>180</v>
+      </c>
+      <c r="M39" s="310">
         <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="254" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="254">
         <v>1500</v>
       </c>
       <c r="D40" s="284" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="282"/>
-      <c r="G40" s="310" t="s">
-        <v>251</v>
+      <c r="G40" s="308" t="s">
+        <v>250</v>
       </c>
       <c r="H40" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" s="312">
+        <v>252</v>
+      </c>
+      <c r="I40" s="310">
         <v>-2500</v>
       </c>
-      <c r="K40" s="310" t="s">
+      <c r="K40" s="308" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="276" t="s">
         <v>255</v>
       </c>
-      <c r="L40" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="M40" s="312">
+      <c r="M40" s="310">
         <v>5000</v>
       </c>
     </row>
@@ -38807,146 +38891,146 @@
       <c r="C41" s="254"/>
       <c r="D41" s="284"/>
       <c r="E41" s="282"/>
-      <c r="G41" s="310" t="s">
-        <v>251</v>
+      <c r="G41" s="308" t="s">
+        <v>250</v>
       </c>
       <c r="H41" s="276" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41" s="312">
+        <v>180</v>
+      </c>
+      <c r="I41" s="310">
         <v>6500</v>
       </c>
-      <c r="K41" s="310" t="s">
-        <v>259</v>
+      <c r="K41" s="308" t="s">
+        <v>258</v>
       </c>
       <c r="L41" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="M41" s="312">
+        <v>255</v>
+      </c>
+      <c r="M41" s="310">
         <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="276" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="276" t="s">
         <v>206</v>
-      </c>
-      <c r="B42" s="276" t="s">
-        <v>207</v>
       </c>
       <c r="C42" s="276">
         <v>1000</v>
       </c>
       <c r="D42" s="283" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="286">
         <v>350414100342350</v>
       </c>
-      <c r="G42" s="311" t="s">
+      <c r="G42" s="309" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" s="254" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="254" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42" s="313">
+      <c r="I42" s="311">
         <v>8500</v>
       </c>
-      <c r="K42" s="311" t="s">
-        <v>264</v>
+      <c r="K42" s="309" t="s">
+        <v>263</v>
       </c>
       <c r="L42" s="254" t="s">
-        <v>181</v>
-      </c>
-      <c r="M42" s="313">
+        <v>180</v>
+      </c>
+      <c r="M42" s="311">
         <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="301">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="284" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="302">
-        <v>1000</v>
-      </c>
-      <c r="D43" s="284" t="s">
+      <c r="E43" s="330" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="333" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="311" t="s">
-        <v>257</v>
+      <c r="G43" s="309" t="s">
+        <v>256</v>
       </c>
       <c r="H43" s="254" t="s">
-        <v>256</v>
-      </c>
-      <c r="I43" s="313">
+        <v>255</v>
+      </c>
+      <c r="I43" s="311">
         <v>2000</v>
       </c>
-      <c r="K43" s="311"/>
+      <c r="K43" s="309"/>
       <c r="L43" s="254"/>
-      <c r="M43" s="313"/>
+      <c r="M43" s="311"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="254" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44" s="254" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="254">
         <v>1500</v>
       </c>
       <c r="D44" s="284" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="282">
         <v>357484290765465</v>
       </c>
-      <c r="G44" s="311" t="s">
-        <v>259</v>
+      <c r="G44" s="309" t="s">
+        <v>258</v>
       </c>
       <c r="H44" s="254" t="s">
-        <v>256</v>
-      </c>
-      <c r="I44" s="313">
+        <v>255</v>
+      </c>
+      <c r="I44" s="311">
         <v>1000</v>
       </c>
-      <c r="K44" s="311"/>
+      <c r="K44" s="309"/>
       <c r="L44" s="254"/>
-      <c r="M44" s="313"/>
+      <c r="M44" s="311"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="254" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="323" t="s">
         <v>225</v>
-      </c>
-      <c r="B45" s="325" t="s">
-        <v>226</v>
       </c>
       <c r="C45" s="254">
         <v>500</v>
       </c>
-      <c r="D45" s="318" t="s">
-        <v>171</v>
+      <c r="D45" s="316" t="s">
+        <v>170</v>
       </c>
       <c r="E45" s="282">
         <v>354551892934849</v>
       </c>
-      <c r="G45" s="311" t="s">
-        <v>264</v>
+      <c r="G45" s="309" t="s">
+        <v>263</v>
       </c>
       <c r="H45" s="254" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="360">
+        <v>180</v>
+      </c>
+      <c r="I45" s="357">
         <v>3500</v>
       </c>
-      <c r="K45" s="311"/>
+      <c r="K45" s="309"/>
       <c r="L45" s="254"/>
-      <c r="M45" s="360"/>
+      <c r="M45" s="357"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="254"/>
@@ -38954,12 +39038,12 @@
       <c r="C46" s="254"/>
       <c r="D46" s="284"/>
       <c r="E46" s="282"/>
-      <c r="G46" s="311"/>
+      <c r="G46" s="309"/>
       <c r="H46" s="254"/>
-      <c r="I46" s="360"/>
-      <c r="K46" s="311"/>
+      <c r="I46" s="357"/>
+      <c r="K46" s="309"/>
       <c r="L46" s="254"/>
-      <c r="M46" s="360"/>
+      <c r="M46" s="357"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="254"/>
@@ -38967,12 +39051,12 @@
       <c r="C47" s="254"/>
       <c r="D47" s="284"/>
       <c r="E47" s="282"/>
-      <c r="G47" s="311"/>
+      <c r="G47" s="309"/>
       <c r="H47" s="254"/>
-      <c r="I47" s="360"/>
-      <c r="K47" s="311"/>
+      <c r="I47" s="357"/>
+      <c r="K47" s="309"/>
       <c r="L47" s="254"/>
-      <c r="M47" s="360"/>
+      <c r="M47" s="357"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="254"/>
@@ -38980,12 +39064,12 @@
       <c r="C48" s="254"/>
       <c r="D48" s="284"/>
       <c r="E48" s="282"/>
-      <c r="G48" s="311"/>
+      <c r="G48" s="309"/>
       <c r="H48" s="254"/>
-      <c r="I48" s="360"/>
-      <c r="K48" s="311"/>
+      <c r="I48" s="357"/>
+      <c r="K48" s="309"/>
       <c r="L48" s="254"/>
-      <c r="M48" s="360"/>
+      <c r="M48" s="357"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="254"/>
@@ -38993,12 +39077,12 @@
       <c r="C49" s="254"/>
       <c r="D49" s="284"/>
       <c r="E49" s="282"/>
-      <c r="G49" s="311"/>
+      <c r="G49" s="309"/>
       <c r="H49" s="254"/>
-      <c r="I49" s="360"/>
-      <c r="K49" s="311"/>
+      <c r="I49" s="357"/>
+      <c r="K49" s="309"/>
       <c r="L49" s="254"/>
-      <c r="M49" s="360"/>
+      <c r="M49" s="357"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="254"/>
@@ -39006,12 +39090,12 @@
       <c r="C50" s="254"/>
       <c r="D50" s="284"/>
       <c r="E50" s="282"/>
-      <c r="G50" s="311"/>
+      <c r="G50" s="309"/>
       <c r="H50" s="254"/>
-      <c r="I50" s="360"/>
-      <c r="K50" s="311"/>
+      <c r="I50" s="357"/>
+      <c r="K50" s="309"/>
       <c r="L50" s="254"/>
-      <c r="M50" s="360"/>
+      <c r="M50" s="357"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="254"/>
@@ -39019,12 +39103,12 @@
       <c r="C51" s="254"/>
       <c r="D51" s="284"/>
       <c r="E51" s="282"/>
-      <c r="G51" s="311"/>
+      <c r="G51" s="309"/>
       <c r="H51" s="254"/>
-      <c r="I51" s="360"/>
-      <c r="K51" s="311"/>
+      <c r="I51" s="357"/>
+      <c r="K51" s="309"/>
       <c r="L51" s="254"/>
-      <c r="M51" s="360"/>
+      <c r="M51" s="357"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" thickBot="1">
       <c r="A52" s="254"/>
@@ -39032,19 +39116,19 @@
       <c r="C52" s="254"/>
       <c r="D52" s="284"/>
       <c r="E52" s="282"/>
-      <c r="G52" s="454" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="455"/>
-      <c r="I52" s="314">
+      <c r="G52" s="449" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="450"/>
+      <c r="I52" s="312">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="454" t="s">
-        <v>92</v>
-      </c>
-      <c r="L52" s="455"/>
-      <c r="M52" s="314">
+      <c r="K52" s="449" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="450"/>
+      <c r="M52" s="312">
         <f>SUM(M38:M51)</f>
         <v>27000</v>
       </c>
@@ -39274,6 +39358,18 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -39290,18 +39386,6 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39321,1315 +39405,1380 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="319" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="317" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="463"/>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
+      <c r="A1" s="451"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="448" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="472"/>
-      <c r="C2" s="295">
+      <c r="A2" s="464" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="465"/>
+      <c r="C2" s="294">
         <f>C81</f>
-        <v>55250</v>
-      </c>
-      <c r="D2" s="315"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
+        <v>71750</v>
+      </c>
+      <c r="D2" s="313"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="463"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="463"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="463"/>
-      <c r="F3" s="463"/>
+      <c r="A3" s="451"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="255" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="255" t="s">
-        <v>90</v>
-      </c>
       <c r="C4" s="255" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="317" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="315" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="255" t="s">
         <v>156</v>
-      </c>
-      <c r="E4" s="255" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="276">
         <v>1500</v>
       </c>
       <c r="D5" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="282">
         <v>357484290839674</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="283" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="276">
         <v>1500</v>
       </c>
       <c r="D6" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="282">
         <v>357484290763494</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="276">
         <v>500</v>
       </c>
       <c r="D7" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="282">
         <v>354551894549579</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="276" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="283" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" s="283" t="s">
-        <v>241</v>
       </c>
       <c r="C8" s="276">
         <v>1500</v>
       </c>
       <c r="D8" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="282">
         <v>357484290834055</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="276" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="276">
         <v>500</v>
       </c>
       <c r="D9" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="282">
         <v>354551892934765</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="A10" s="276" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="283" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" s="283" t="s">
-        <v>247</v>
       </c>
       <c r="C10" s="276">
         <v>1000</v>
       </c>
       <c r="D10" s="284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="282">
         <v>350414100235489</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="276" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="276">
         <v>1000</v>
       </c>
       <c r="D11" s="284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="282">
         <v>350414100408409</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="254" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="284" t="s">
         <v>251</v>
-      </c>
-      <c r="B12" s="284" t="s">
-        <v>252</v>
       </c>
       <c r="C12" s="254">
         <v>1000</v>
       </c>
       <c r="D12" s="284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="282">
         <v>350414100296937</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="276" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="276">
         <v>500</v>
       </c>
       <c r="D13" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="282">
         <v>354551892913900</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="284" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="254">
         <v>500</v>
       </c>
       <c r="D14" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="282">
         <v>354551894430861</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="350" t="s">
+      <c r="A15" s="347" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="348" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="351" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="350">
+      <c r="C15" s="347">
         <v>500</v>
       </c>
-      <c r="D15" s="351" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="352">
+      <c r="D15" s="348" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="349">
         <v>354551894426976</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="284" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="254">
         <v>500</v>
       </c>
       <c r="D16" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" s="282">
         <v>354551894502008</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="284" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="254">
         <v>500</v>
       </c>
       <c r="D17" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="282">
         <v>354551894431810</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="363" t="s">
+      <c r="A18" s="360" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="316" t="s">
         <v>270</v>
-      </c>
-      <c r="B18" s="318" t="s">
-        <v>271</v>
       </c>
       <c r="C18" s="254">
         <v>500</v>
       </c>
-      <c r="D18" s="318" t="s">
-        <v>238</v>
+      <c r="D18" s="316" t="s">
+        <v>237</v>
       </c>
       <c r="E18" s="282">
         <v>354551894529191</v>
       </c>
-      <c r="F18" s="364" t="s">
-        <v>266</v>
+      <c r="F18" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="363" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="318" t="s">
-        <v>272</v>
+      <c r="A19" s="360" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="316" t="s">
+        <v>271</v>
       </c>
       <c r="C19" s="254">
         <v>500</v>
       </c>
-      <c r="D19" s="318" t="s">
-        <v>273</v>
+      <c r="D19" s="316" t="s">
+        <v>272</v>
       </c>
       <c r="E19" s="282">
         <v>350816950563671</v>
       </c>
-      <c r="F19" s="364" t="s">
-        <v>266</v>
+      <c r="F19" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="363" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" s="318" t="s">
-        <v>272</v>
+      <c r="A20" s="360" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="316" t="s">
+        <v>271</v>
       </c>
       <c r="C20" s="254">
         <v>500</v>
       </c>
-      <c r="D20" s="318" t="s">
-        <v>273</v>
+      <c r="D20" s="316" t="s">
+        <v>272</v>
       </c>
       <c r="E20" s="282">
         <v>350816950504733</v>
       </c>
-      <c r="F20" s="364" t="s">
-        <v>266</v>
+      <c r="F20" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" s="284" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="254">
         <v>500</v>
       </c>
-      <c r="D21" s="318" t="s">
-        <v>273</v>
+      <c r="D21" s="316" t="s">
+        <v>272</v>
       </c>
       <c r="E21" s="282"/>
-      <c r="F21" s="364" t="s">
-        <v>266</v>
+      <c r="F21" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="254" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="284" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="254">
         <v>1500</v>
       </c>
       <c r="D22" s="284"/>
       <c r="E22" s="282"/>
-      <c r="F22" s="364" t="s">
-        <v>266</v>
+      <c r="F22" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="254" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" s="284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="254">
         <v>500</v>
       </c>
       <c r="D23" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="282">
         <v>354551894980220</v>
       </c>
-      <c r="F23" s="364" t="s">
-        <v>266</v>
+      <c r="F23" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="254" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" s="284" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="254">
         <v>2000</v>
       </c>
       <c r="D24" s="284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="282"/>
-      <c r="F24" s="364" t="s">
-        <v>266</v>
+      <c r="F24" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="254" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" s="284" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="254">
         <v>1000</v>
       </c>
       <c r="D25" s="284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="282">
         <v>350414100197093</v>
       </c>
-      <c r="F25" s="364" t="s">
-        <v>266</v>
+      <c r="F25" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="254" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="284" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="254">
         <v>2000</v>
       </c>
       <c r="D26" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="282">
         <v>357481290926836</v>
       </c>
-      <c r="F26" s="364" t="s">
-        <v>266</v>
+      <c r="F26" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="254" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" s="284" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="254">
         <v>500</v>
       </c>
-      <c r="D27" s="318" t="s">
-        <v>273</v>
+      <c r="D27" s="316" t="s">
+        <v>272</v>
       </c>
       <c r="E27" s="282">
         <v>351908991093229</v>
       </c>
-      <c r="F27" s="364" t="s">
-        <v>266</v>
+      <c r="F27" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="284" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="254">
         <v>500</v>
       </c>
       <c r="D28" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="282">
         <v>35455892961560</v>
       </c>
-      <c r="F28" s="364" t="s">
-        <v>266</v>
+      <c r="F28" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="284" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="254">
         <v>500</v>
       </c>
       <c r="D29" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="282">
         <v>35455189453336</v>
       </c>
-      <c r="F29" s="364" t="s">
-        <v>266</v>
+      <c r="F29" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="254" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="254" t="s">
         <v>290</v>
-      </c>
-      <c r="B30" s="254" t="s">
-        <v>291</v>
       </c>
       <c r="C30" s="254">
         <v>500</v>
       </c>
       <c r="D30" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="282">
         <v>354551894519560</v>
       </c>
-      <c r="F30" s="364" t="s">
-        <v>266</v>
+      <c r="F30" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="254" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="254">
         <v>500</v>
       </c>
       <c r="D31" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" s="282">
         <v>354545894432099</v>
       </c>
-      <c r="F31" s="364" t="s">
-        <v>266</v>
+      <c r="F31" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="254" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="254">
         <v>500</v>
       </c>
       <c r="D32" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32" s="282">
         <v>354551894427008</v>
       </c>
-      <c r="F32" s="364" t="s">
-        <v>266</v>
+      <c r="F32" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="254">
         <v>500</v>
       </c>
       <c r="D33" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E33" s="282">
         <v>350816950432745</v>
       </c>
-      <c r="F33" s="364" t="s">
-        <v>266</v>
+      <c r="F33" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="254">
         <v>500</v>
       </c>
       <c r="D34" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E34" s="282">
         <v>351908990782772</v>
       </c>
-      <c r="F34" s="364" t="s">
-        <v>266</v>
+      <c r="F34" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="254">
         <v>500</v>
       </c>
       <c r="D35" s="284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E35" s="282">
         <v>357567590347925</v>
       </c>
-      <c r="F35" s="364" t="s">
-        <v>266</v>
+      <c r="F35" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="350" t="s">
-        <v>298</v>
-      </c>
-      <c r="B36" s="350" t="s">
+      <c r="A36" s="347" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="347" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="347">
+        <v>1350</v>
+      </c>
+      <c r="D36" s="348"/>
+      <c r="E36" s="349"/>
+      <c r="F36" s="371" t="s">
         <v>300</v>
-      </c>
-      <c r="C36" s="350">
-        <v>1350</v>
-      </c>
-      <c r="D36" s="351"/>
-      <c r="E36" s="352"/>
-      <c r="F36" s="375" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="254" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="254" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="254">
         <v>1000</v>
       </c>
       <c r="D37" s="284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E37" s="282">
         <v>357567590168487</v>
       </c>
-      <c r="F37" s="364" t="s">
-        <v>266</v>
+      <c r="F37" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="350" t="s">
-        <v>308</v>
-      </c>
-      <c r="B38" s="350" t="s">
-        <v>311</v>
-      </c>
-      <c r="C38" s="350">
+      <c r="A38" s="347" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="347" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="347">
         <v>900</v>
       </c>
-      <c r="D38" s="351"/>
-      <c r="E38" s="352"/>
-      <c r="F38" s="375" t="s">
-        <v>301</v>
+      <c r="D38" s="348"/>
+      <c r="E38" s="349"/>
+      <c r="F38" s="371" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="254" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" s="254" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="254">
         <v>1000</v>
       </c>
       <c r="D39" s="284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="282">
         <v>357567590343890</v>
       </c>
-      <c r="F39" s="364" t="s">
-        <v>266</v>
+      <c r="F39" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="276" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" s="276" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="276">
         <v>1000</v>
       </c>
       <c r="D40" s="283" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E40" s="286">
         <v>357567590426554</v>
       </c>
-      <c r="F40" s="364" t="s">
-        <v>266</v>
+      <c r="F40" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="284" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B41" s="284" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="302">
+        <v>100</v>
+      </c>
+      <c r="C41" s="301">
         <v>2000</v>
       </c>
       <c r="D41" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="303">
+        <v>280</v>
+      </c>
+      <c r="E41" s="302">
         <v>358154350342914</v>
       </c>
-      <c r="F41" s="364" t="s">
-        <v>266</v>
+      <c r="F41" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="254" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C42" s="254">
         <v>500</v>
       </c>
       <c r="D42" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E42" s="282">
         <v>351908991275511</v>
       </c>
-      <c r="F42" s="364" t="s">
-        <v>266</v>
+      <c r="F42" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="254" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="325" t="s">
-        <v>86</v>
+        <v>317</v>
+      </c>
+      <c r="B43" s="323" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="254">
         <v>2000</v>
       </c>
-      <c r="D43" s="318" t="s">
-        <v>281</v>
+      <c r="D43" s="316" t="s">
+        <v>280</v>
       </c>
       <c r="E43" s="282" t="s">
-        <v>319</v>
-      </c>
-      <c r="F43" s="364" t="s">
-        <v>266</v>
+        <v>318</v>
+      </c>
+      <c r="F43" s="361" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="254" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="254" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="254">
         <v>500</v>
       </c>
       <c r="D44" s="284" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E44" s="282">
         <v>354551894431570</v>
       </c>
-      <c r="F44" s="395" t="s">
-        <v>266</v>
+      <c r="F44" s="387" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="254" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="254">
         <v>500</v>
       </c>
       <c r="D45" s="284" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E45" s="282">
         <v>351908991372672</v>
       </c>
-      <c r="F45" s="396" t="s">
-        <v>266</v>
+      <c r="F45" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" s="254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="254">
         <v>2000</v>
       </c>
       <c r="D46" s="284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E46" s="282">
         <v>358154350419050</v>
       </c>
-      <c r="F46" s="396" t="s">
-        <v>266</v>
+      <c r="F46" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" s="254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" s="254">
         <v>500</v>
       </c>
       <c r="D47" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E47" s="282">
         <v>350816950010079</v>
       </c>
-      <c r="F47" s="396" t="s">
-        <v>266</v>
+      <c r="F47" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B48" s="254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="254">
         <v>500</v>
       </c>
       <c r="D48" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="282">
         <v>350816950565692</v>
       </c>
-      <c r="F48" s="396" t="s">
-        <v>266</v>
+      <c r="F48" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="254" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="254">
         <v>500</v>
       </c>
       <c r="D49" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E49" s="282">
         <v>351908990362518</v>
       </c>
-      <c r="F49" s="396" t="s">
-        <v>266</v>
+      <c r="F49" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C50" s="254">
         <v>2000</v>
       </c>
       <c r="D50" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" s="282">
         <v>357484290791164</v>
       </c>
-      <c r="F50" s="396" t="s">
-        <v>266</v>
+      <c r="F50" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B51" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C51" s="254">
         <v>500</v>
       </c>
       <c r="D51" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E51" s="282" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" s="396" t="s">
-        <v>266</v>
+        <v>326</v>
+      </c>
+      <c r="F51" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="254" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" s="254" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="254">
         <v>500</v>
       </c>
       <c r="D52" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52" s="282">
         <v>354551892920269</v>
       </c>
-      <c r="F52" s="396" t="s">
-        <v>266</v>
+      <c r="F52" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="254" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B53" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="254">
         <v>2000</v>
       </c>
       <c r="D53" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" s="282">
         <v>357484291098106</v>
       </c>
-      <c r="F53" s="396" t="s">
-        <v>266</v>
+      <c r="F53" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="254" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" s="254" t="s">
         <v>331</v>
-      </c>
-      <c r="B54" s="254" t="s">
-        <v>332</v>
       </c>
       <c r="C54" s="254">
         <v>1000</v>
       </c>
       <c r="D54" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E54" s="282">
         <v>357567590432420</v>
       </c>
-      <c r="F54" s="396" t="s">
-        <v>266</v>
+      <c r="F54" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="254" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55" s="254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C55" s="254">
         <v>3000</v>
       </c>
       <c r="D55" s="284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E55" s="282"/>
-      <c r="F55" s="396" t="s">
-        <v>266</v>
+      <c r="F55" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="254">
         <v>3000</v>
       </c>
       <c r="D56" s="284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E56" s="282">
         <v>358154350328855</v>
       </c>
-      <c r="F56" s="396" t="s">
-        <v>266</v>
+      <c r="F56" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57" s="254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="254">
         <v>500</v>
       </c>
       <c r="D57" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E57" s="282">
         <v>351908991384230</v>
       </c>
-      <c r="F57" s="396" t="s">
-        <v>266</v>
+      <c r="F57" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B58" s="254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="254">
         <v>500</v>
       </c>
       <c r="D58" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E58" s="282">
         <v>354551894953772</v>
       </c>
-      <c r="F58" s="396" t="s">
-        <v>266</v>
+      <c r="F58" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B59" s="254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="254">
         <v>1000</v>
       </c>
       <c r="D59" s="284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E59" s="282">
         <v>350414100297471</v>
       </c>
-      <c r="F59" s="396" t="s">
-        <v>266</v>
+      <c r="F59" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" s="254">
         <v>1000</v>
       </c>
       <c r="D60" s="284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E60" s="282"/>
-      <c r="F60" s="396" t="s">
-        <v>266</v>
+      <c r="F60" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="254" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B61" s="254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C61" s="254">
         <v>1000</v>
       </c>
       <c r="D61" s="284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E61" s="282"/>
-      <c r="F61" s="396" t="s">
-        <v>266</v>
+      <c r="F61" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" s="254" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="254">
         <v>500</v>
       </c>
       <c r="D62" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E62" s="282">
         <v>350816950175252</v>
       </c>
-      <c r="F62" s="396" t="s">
-        <v>266</v>
+      <c r="F62" s="388" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="254"/>
-      <c r="B63" s="254"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="284"/>
-      <c r="E63" s="282"/>
+      <c r="A63" s="360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="360" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="254">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="316" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="282">
+        <v>357567590097264</v>
+      </c>
+      <c r="F63" s="388" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="254"/>
-      <c r="B64" s="254"/>
-      <c r="C64" s="254"/>
-      <c r="D64" s="284"/>
-      <c r="E64" s="282"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="254"/>
-      <c r="B65" s="254"/>
-      <c r="C65" s="254"/>
-      <c r="D65" s="284"/>
-      <c r="E65" s="282"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="254"/>
-      <c r="B66" s="254"/>
-      <c r="C66" s="254"/>
-      <c r="D66" s="284"/>
-      <c r="E66" s="282"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="254"/>
-      <c r="B67" s="254"/>
-      <c r="C67" s="254"/>
-      <c r="D67" s="284"/>
-      <c r="E67" s="282"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="A64" s="360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="360" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="254">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="316" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="282">
+        <v>357567590156045</v>
+      </c>
+      <c r="F64" s="388" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="360" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="254">
+        <v>4000</v>
+      </c>
+      <c r="D65" s="316" t="s">
+        <v>341</v>
+      </c>
+      <c r="E65" s="282">
+        <v>352255290012941</v>
+      </c>
+      <c r="F65" s="388" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="360" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="254">
+        <v>10000</v>
+      </c>
+      <c r="D66" s="316" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="282">
+        <v>350992470022892</v>
+      </c>
+      <c r="F66" s="388" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="360" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="254">
+        <v>500</v>
+      </c>
+      <c r="D67" s="316" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="282">
+        <v>354551894982390</v>
+      </c>
+      <c r="F67" s="388" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="254"/>
       <c r="B68" s="254"/>
       <c r="C68" s="254"/>
       <c r="D68" s="284"/>
       <c r="E68" s="282"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="254"/>
       <c r="B69" s="254"/>
       <c r="C69" s="254"/>
       <c r="D69" s="284"/>
       <c r="E69" s="282"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="254"/>
       <c r="B70" s="254"/>
       <c r="C70" s="254"/>
       <c r="D70" s="284"/>
       <c r="E70" s="282"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="254"/>
       <c r="B71" s="254"/>
       <c r="C71" s="254"/>
       <c r="D71" s="284"/>
       <c r="E71" s="282"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="254"/>
       <c r="B72" s="254"/>
       <c r="C72" s="254"/>
       <c r="D72" s="284"/>
       <c r="E72" s="282"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="254"/>
       <c r="B73" s="254"/>
       <c r="C73" s="254"/>
       <c r="D73" s="284"/>
       <c r="E73" s="282"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="254"/>
       <c r="B74" s="254"/>
       <c r="C74" s="254"/>
       <c r="D74" s="284"/>
       <c r="E74" s="282"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="254"/>
       <c r="B75" s="254"/>
       <c r="C75" s="254"/>
       <c r="D75" s="284"/>
       <c r="E75" s="282"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="254"/>
       <c r="B76" s="254"/>
       <c r="C76" s="254"/>
       <c r="D76" s="284"/>
       <c r="E76" s="282"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="254"/>
       <c r="B77" s="254"/>
       <c r="C77" s="254"/>
       <c r="D77" s="284"/>
       <c r="E77" s="282"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="254"/>
       <c r="B78" s="254"/>
       <c r="C78" s="254"/>
       <c r="D78" s="284"/>
       <c r="E78" s="282"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="254"/>
       <c r="B79" s="254"/>
       <c r="C79" s="254"/>
       <c r="D79" s="284"/>
       <c r="E79" s="282"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="254"/>
       <c r="B80" s="254"/>
       <c r="C80" s="254"/>
@@ -40641,7 +40790,7 @@
       <c r="B81" s="254"/>
       <c r="C81" s="254">
         <f>SUM(C5:C80)</f>
-        <v>55250</v>
+        <v>71750</v>
       </c>
       <c r="D81" s="284"/>
       <c r="E81" s="254"/>

--- a/2022/Samsung/APRIL/28.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/28.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3679,6 +3679,12 @@
     <xf numFmtId="1" fontId="32" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3691,45 +3697,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3820,6 +3826,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3829,10 +3859,16 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3844,21 +3880,9 @@
     <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3874,31 +3898,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4358,33 +4358,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="401"/>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
+      <c r="A1" s="403"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="402"/>
-      <c r="B2" s="399" t="s">
+      <c r="A2" s="404"/>
+      <c r="B2" s="401" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="400" t="s">
+      <c r="A3" s="404"/>
+      <c r="B3" s="402" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="402"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="402"/>
+      <c r="A5" s="404"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="402"/>
+      <c r="A6" s="404"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4432,7 +4432,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="402"/>
+      <c r="A7" s="404"/>
       <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="402"/>
+      <c r="A8" s="404"/>
       <c r="B8" s="26" t="s">
         <v>42</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="402"/>
+      <c r="A9" s="404"/>
       <c r="B9" s="26" t="s">
         <v>44</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="402"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="26" t="s">
         <v>45</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="402"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="26" t="s">
         <v>46</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="402"/>
+      <c r="A12" s="404"/>
       <c r="B12" s="26" t="s">
         <v>47</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="402"/>
+      <c r="A13" s="404"/>
       <c r="B13" s="26" t="s">
         <v>48</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="402"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="26" t="s">
         <v>49</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="402"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="26" t="s">
         <v>50</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="402"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="402"/>
+      <c r="A17" s="404"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4629,7 +4629,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="402"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4642,7 +4642,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="402"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4655,7 +4655,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="402"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4668,7 +4668,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="402"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4681,7 +4681,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="402"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4694,7 +4694,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="402"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4707,7 +4707,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="402"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4720,7 +4720,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="402"/>
+      <c r="A25" s="404"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4733,7 +4733,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="402"/>
+      <c r="A26" s="404"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4746,7 +4746,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="402"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4759,7 +4759,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="402"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4772,7 +4772,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="402"/>
+      <c r="A29" s="404"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4785,7 +4785,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="402"/>
+      <c r="A30" s="404"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4798,7 +4798,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="402"/>
+      <c r="A31" s="404"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4811,7 +4811,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="402"/>
+      <c r="A32" s="404"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4824,7 +4824,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="402"/>
+      <c r="A33" s="404"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4837,7 +4837,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="402"/>
+      <c r="A34" s="404"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4850,7 +4850,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="402"/>
+      <c r="A35" s="404"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4863,7 +4863,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="402"/>
+      <c r="A36" s="404"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4876,7 +4876,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="402"/>
+      <c r="A37" s="404"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4889,7 +4889,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="402"/>
+      <c r="A38" s="404"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4902,7 +4902,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="402"/>
+      <c r="A39" s="404"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4915,7 +4915,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="402"/>
+      <c r="A40" s="404"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4928,7 +4928,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="402"/>
+      <c r="A41" s="404"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4941,7 +4941,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="402"/>
+      <c r="A42" s="404"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4954,7 +4954,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="402"/>
+      <c r="A43" s="404"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4967,7 +4967,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="402"/>
+      <c r="A44" s="404"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4980,7 +4980,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="402"/>
+      <c r="A45" s="404"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4993,7 +4993,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="402"/>
+      <c r="A46" s="404"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -5006,7 +5006,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="402"/>
+      <c r="A47" s="404"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -5019,7 +5019,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="402"/>
+      <c r="A48" s="404"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -5032,7 +5032,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="402"/>
+      <c r="A49" s="404"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5045,7 +5045,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="402"/>
+      <c r="A50" s="404"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5058,7 +5058,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="402"/>
+      <c r="A51" s="404"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5071,7 +5071,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="402"/>
+      <c r="A52" s="404"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5084,7 +5084,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="402"/>
+      <c r="A53" s="404"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5097,7 +5097,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="402"/>
+      <c r="A54" s="404"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5110,7 +5110,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="402"/>
+      <c r="A55" s="404"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5122,7 +5122,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="402"/>
+      <c r="A56" s="404"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5134,7 +5134,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="402"/>
+      <c r="A57" s="404"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5146,7 +5146,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="402"/>
+      <c r="A58" s="404"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5158,7 +5158,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="402"/>
+      <c r="A59" s="404"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5170,7 +5170,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="402"/>
+      <c r="A60" s="404"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5182,7 +5182,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="402"/>
+      <c r="A61" s="404"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5194,7 +5194,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="402"/>
+      <c r="A62" s="404"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5206,7 +5206,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="402"/>
+      <c r="A63" s="404"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5218,7 +5218,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="402"/>
+      <c r="A64" s="404"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5230,7 +5230,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="402"/>
+      <c r="A65" s="404"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5242,7 +5242,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="402"/>
+      <c r="A66" s="404"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5254,7 +5254,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="402"/>
+      <c r="A67" s="404"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5266,7 +5266,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="402"/>
+      <c r="A68" s="404"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5278,7 +5278,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="402"/>
+      <c r="A69" s="404"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5290,7 +5290,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="402"/>
+      <c r="A70" s="404"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5302,7 +5302,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="402"/>
+      <c r="A71" s="404"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5314,7 +5314,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="402"/>
+      <c r="A72" s="404"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5326,7 +5326,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="402"/>
+      <c r="A73" s="404"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5338,7 +5338,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="402"/>
+      <c r="A74" s="404"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5350,7 +5350,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="402"/>
+      <c r="A75" s="404"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5362,7 +5362,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="402"/>
+      <c r="A76" s="404"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5374,7 +5374,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="402"/>
+      <c r="A77" s="404"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5386,7 +5386,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="402"/>
+      <c r="A78" s="404"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5398,7 +5398,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="402"/>
+      <c r="A79" s="404"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5410,7 +5410,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="402"/>
+      <c r="A80" s="404"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5422,7 +5422,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="402"/>
+      <c r="A81" s="404"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5434,7 +5434,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="402"/>
+      <c r="A82" s="404"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5446,7 +5446,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="402"/>
+      <c r="A83" s="404"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5503,33 +5503,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="401"/>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
+      <c r="A1" s="403"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="402"/>
-      <c r="B2" s="399" t="s">
+      <c r="A2" s="404"/>
+      <c r="B2" s="401" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="400" t="s">
+      <c r="A3" s="404"/>
+      <c r="B3" s="402" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="402"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5547,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="402"/>
+      <c r="A5" s="404"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="402"/>
+      <c r="A6" s="404"/>
       <c r="B6" s="26"/>
       <c r="C6" s="242"/>
       <c r="D6" s="242"/>
@@ -5577,7 +5577,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="402"/>
+      <c r="A7" s="404"/>
       <c r="B7" s="26" t="s">
         <v>235</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="402"/>
+      <c r="A8" s="404"/>
       <c r="B8" s="26" t="s">
         <v>239</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="402"/>
+      <c r="A9" s="404"/>
       <c r="B9" s="26" t="s">
         <v>245</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="402"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="26" t="s">
         <v>250</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="402"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="26" t="s">
         <v>254</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="402"/>
+      <c r="A12" s="404"/>
       <c r="B12" s="26" t="s">
         <v>256</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="402"/>
+      <c r="A13" s="404"/>
       <c r="B13" s="351" t="s">
         <v>258</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="402"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="26" t="s">
         <v>263</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="402"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="26" t="s">
         <v>266</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="402"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="26" t="s">
         <v>267</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="402"/>
+      <c r="A17" s="404"/>
       <c r="B17" s="26" t="s">
         <v>269</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="402"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="26" t="s">
         <v>273</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="402"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="26" t="s">
         <v>275</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="402"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="26" t="s">
         <v>285</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="402"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="351" t="s">
         <v>289</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="402"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="26" t="s">
         <v>289</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="402"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="26" t="s">
         <v>297</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="402"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="26" t="s">
         <v>307</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="402"/>
+      <c r="A25" s="404"/>
       <c r="B25" s="26" t="s">
         <v>313</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="402"/>
+      <c r="A26" s="404"/>
       <c r="B26" s="26" t="s">
         <v>315</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="402"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="26" t="s">
         <v>317</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="402"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="26" t="s">
         <v>325</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="402"/>
+      <c r="A29" s="404"/>
       <c r="B29" s="26" t="s">
         <v>330</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="402"/>
+      <c r="A30" s="404"/>
       <c r="B30" s="26" t="s">
         <v>332</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="402"/>
+      <c r="A31" s="404"/>
       <c r="B31" s="351" t="s">
         <v>334</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="402"/>
+      <c r="A32" s="404"/>
       <c r="B32" s="26" t="s">
         <v>334</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="402"/>
+      <c r="A33" s="404"/>
       <c r="B33" s="26"/>
       <c r="C33" s="242"/>
       <c r="D33" s="244"/>
@@ -6117,7 +6117,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="402"/>
+      <c r="A34" s="404"/>
       <c r="B34" s="26"/>
       <c r="C34" s="242"/>
       <c r="D34" s="242"/>
@@ -6131,7 +6131,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="402"/>
+      <c r="A35" s="404"/>
       <c r="B35" s="26"/>
       <c r="C35" s="242"/>
       <c r="D35" s="242"/>
@@ -6145,7 +6145,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="402"/>
+      <c r="A36" s="404"/>
       <c r="B36" s="26"/>
       <c r="C36" s="242"/>
       <c r="D36" s="242"/>
@@ -6159,7 +6159,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="402"/>
+      <c r="A37" s="404"/>
       <c r="B37" s="26"/>
       <c r="C37" s="242"/>
       <c r="D37" s="242"/>
@@ -6173,7 +6173,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="402"/>
+      <c r="A38" s="404"/>
       <c r="B38" s="26"/>
       <c r="C38" s="242"/>
       <c r="D38" s="242"/>
@@ -6187,7 +6187,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="402"/>
+      <c r="A39" s="404"/>
       <c r="B39" s="26"/>
       <c r="C39" s="242"/>
       <c r="D39" s="242"/>
@@ -6201,7 +6201,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="402"/>
+      <c r="A40" s="404"/>
       <c r="B40" s="26"/>
       <c r="C40" s="242"/>
       <c r="D40" s="242"/>
@@ -6215,7 +6215,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="402"/>
+      <c r="A41" s="404"/>
       <c r="B41" s="26"/>
       <c r="C41" s="242"/>
       <c r="D41" s="242"/>
@@ -6229,7 +6229,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="402"/>
+      <c r="A42" s="404"/>
       <c r="B42" s="26"/>
       <c r="C42" s="242"/>
       <c r="D42" s="242"/>
@@ -6243,7 +6243,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="402"/>
+      <c r="A43" s="404"/>
       <c r="B43" s="26"/>
       <c r="C43" s="242"/>
       <c r="D43" s="242"/>
@@ -6257,7 +6257,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="402"/>
+      <c r="A44" s="404"/>
       <c r="B44" s="26"/>
       <c r="C44" s="242"/>
       <c r="D44" s="242"/>
@@ -6271,7 +6271,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="402"/>
+      <c r="A45" s="404"/>
       <c r="B45" s="26"/>
       <c r="C45" s="242"/>
       <c r="D45" s="242"/>
@@ -6285,7 +6285,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="402"/>
+      <c r="A46" s="404"/>
       <c r="B46" s="26"/>
       <c r="C46" s="242"/>
       <c r="D46" s="242"/>
@@ -6299,7 +6299,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="402"/>
+      <c r="A47" s="404"/>
       <c r="B47" s="26"/>
       <c r="C47" s="242"/>
       <c r="D47" s="242"/>
@@ -6313,7 +6313,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="402"/>
+      <c r="A48" s="404"/>
       <c r="B48" s="26"/>
       <c r="C48" s="242"/>
       <c r="D48" s="242"/>
@@ -6327,7 +6327,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="402"/>
+      <c r="A49" s="404"/>
       <c r="B49" s="26"/>
       <c r="C49" s="242"/>
       <c r="D49" s="242"/>
@@ -6341,7 +6341,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="402"/>
+      <c r="A50" s="404"/>
       <c r="B50" s="26"/>
       <c r="C50" s="242"/>
       <c r="D50" s="242"/>
@@ -6355,7 +6355,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="402"/>
+      <c r="A51" s="404"/>
       <c r="B51" s="26"/>
       <c r="C51" s="242"/>
       <c r="D51" s="242"/>
@@ -6369,7 +6369,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="402"/>
+      <c r="A52" s="404"/>
       <c r="B52" s="26"/>
       <c r="C52" s="242"/>
       <c r="D52" s="242"/>
@@ -6383,7 +6383,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="402"/>
+      <c r="A53" s="404"/>
       <c r="B53" s="26"/>
       <c r="C53" s="242"/>
       <c r="D53" s="242"/>
@@ -6397,7 +6397,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="402"/>
+      <c r="A54" s="404"/>
       <c r="B54" s="26"/>
       <c r="C54" s="242"/>
       <c r="D54" s="242"/>
@@ -6411,7 +6411,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="402"/>
+      <c r="A55" s="404"/>
       <c r="B55" s="26"/>
       <c r="C55" s="242"/>
       <c r="D55" s="242"/>
@@ -6425,7 +6425,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="402"/>
+      <c r="A56" s="404"/>
       <c r="B56" s="26"/>
       <c r="C56" s="242"/>
       <c r="D56" s="242"/>
@@ -6439,7 +6439,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="402"/>
+      <c r="A57" s="404"/>
       <c r="B57" s="26"/>
       <c r="C57" s="242"/>
       <c r="D57" s="242"/>
@@ -6450,7 +6450,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="402"/>
+      <c r="A58" s="404"/>
       <c r="B58" s="26"/>
       <c r="C58" s="242"/>
       <c r="D58" s="242"/>
@@ -6461,7 +6461,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="402"/>
+      <c r="A59" s="404"/>
       <c r="B59" s="26"/>
       <c r="C59" s="242"/>
       <c r="D59" s="242"/>
@@ -6472,7 +6472,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="402"/>
+      <c r="A60" s="404"/>
       <c r="B60" s="26"/>
       <c r="C60" s="242"/>
       <c r="D60" s="242"/>
@@ -6483,7 +6483,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="402"/>
+      <c r="A61" s="404"/>
       <c r="B61" s="26"/>
       <c r="C61" s="242"/>
       <c r="D61" s="242"/>
@@ -6494,7 +6494,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="402"/>
+      <c r="A62" s="404"/>
       <c r="B62" s="26"/>
       <c r="C62" s="242"/>
       <c r="D62" s="242"/>
@@ -6505,7 +6505,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="402"/>
+      <c r="A63" s="404"/>
       <c r="B63" s="26"/>
       <c r="C63" s="242"/>
       <c r="D63" s="242"/>
@@ -6516,7 +6516,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="402"/>
+      <c r="A64" s="404"/>
       <c r="B64" s="26"/>
       <c r="C64" s="242"/>
       <c r="D64" s="242"/>
@@ -6527,7 +6527,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="402"/>
+      <c r="A65" s="404"/>
       <c r="B65" s="26"/>
       <c r="C65" s="242"/>
       <c r="D65" s="242"/>
@@ -6538,7 +6538,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="402"/>
+      <c r="A66" s="404"/>
       <c r="B66" s="26"/>
       <c r="C66" s="242"/>
       <c r="D66" s="242"/>
@@ -6549,7 +6549,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="402"/>
+      <c r="A67" s="404"/>
       <c r="B67" s="26"/>
       <c r="C67" s="242"/>
       <c r="D67" s="242"/>
@@ -6560,7 +6560,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="402"/>
+      <c r="A68" s="404"/>
       <c r="B68" s="26"/>
       <c r="C68" s="242"/>
       <c r="D68" s="242"/>
@@ -6571,7 +6571,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="402"/>
+      <c r="A69" s="404"/>
       <c r="B69" s="26"/>
       <c r="C69" s="242"/>
       <c r="D69" s="242"/>
@@ -6582,7 +6582,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="402"/>
+      <c r="A70" s="404"/>
       <c r="B70" s="26"/>
       <c r="C70" s="242"/>
       <c r="D70" s="242"/>
@@ -6593,7 +6593,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="402"/>
+      <c r="A71" s="404"/>
       <c r="B71" s="26"/>
       <c r="C71" s="242"/>
       <c r="D71" s="242"/>
@@ -6604,7 +6604,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="402"/>
+      <c r="A72" s="404"/>
       <c r="B72" s="26"/>
       <c r="C72" s="242"/>
       <c r="D72" s="242"/>
@@ -6615,7 +6615,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="402"/>
+      <c r="A73" s="404"/>
       <c r="B73" s="26"/>
       <c r="C73" s="242"/>
       <c r="D73" s="242"/>
@@ -6626,7 +6626,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="402"/>
+      <c r="A74" s="404"/>
       <c r="B74" s="26"/>
       <c r="C74" s="242"/>
       <c r="D74" s="242"/>
@@ -6637,7 +6637,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="402"/>
+      <c r="A75" s="404"/>
       <c r="B75" s="26"/>
       <c r="C75" s="242"/>
       <c r="D75" s="242"/>
@@ -6648,7 +6648,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="402"/>
+      <c r="A76" s="404"/>
       <c r="B76" s="26"/>
       <c r="C76" s="242"/>
       <c r="D76" s="242"/>
@@ -6659,7 +6659,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="402"/>
+      <c r="A77" s="404"/>
       <c r="B77" s="26"/>
       <c r="C77" s="242"/>
       <c r="D77" s="242"/>
@@ -6670,7 +6670,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="402"/>
+      <c r="A78" s="404"/>
       <c r="B78" s="26"/>
       <c r="C78" s="242"/>
       <c r="D78" s="242"/>
@@ -6681,7 +6681,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="402"/>
+      <c r="A79" s="404"/>
       <c r="B79" s="26"/>
       <c r="C79" s="242"/>
       <c r="D79" s="242"/>
@@ -6693,7 +6693,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="402"/>
+      <c r="A80" s="404"/>
       <c r="B80" s="26"/>
       <c r="C80" s="242"/>
       <c r="D80" s="242"/>
@@ -6705,7 +6705,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="402"/>
+      <c r="A81" s="404"/>
       <c r="B81" s="26"/>
       <c r="C81" s="242"/>
       <c r="D81" s="242"/>
@@ -6717,7 +6717,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="402"/>
+      <c r="A82" s="404"/>
       <c r="B82" s="26"/>
       <c r="C82" s="242"/>
       <c r="D82" s="242"/>
@@ -6729,7 +6729,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="402"/>
+      <c r="A83" s="404"/>
       <c r="B83" s="31"/>
       <c r="C83" s="243">
         <f>SUM(C5:C72)</f>
@@ -6860,46 +6860,46 @@
       <c r="B4" s="414" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="416" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="403" t="s">
+      <c r="D4" s="416" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="416" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="416" t="s">
+      <c r="F4" s="418" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="403" t="s">
+      <c r="G4" s="416" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="403" t="s">
+      <c r="H4" s="416" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="403" t="s">
+      <c r="I4" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="403" t="s">
+      <c r="J4" s="416" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="403" t="s">
+      <c r="K4" s="416" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="403" t="s">
+      <c r="L4" s="416" t="s">
         <v>276</v>
       </c>
-      <c r="M4" s="403" t="s">
+      <c r="M4" s="416" t="s">
         <v>274</v>
       </c>
-      <c r="N4" s="403" t="s">
+      <c r="N4" s="416" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="405" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="418" t="s">
+      <c r="P4" s="420" t="s">
         <v>141</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6914,20 +6914,20 @@
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="413"/>
       <c r="B5" s="415"/>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="417"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="404"/>
-      <c r="J5" s="404"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="404"/>
-      <c r="N5" s="404"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="417"/>
+      <c r="E5" s="417"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="417"/>
+      <c r="K5" s="417"/>
+      <c r="L5" s="417"/>
+      <c r="M5" s="417"/>
+      <c r="N5" s="417"/>
       <c r="O5" s="406"/>
-      <c r="P5" s="419"/>
+      <c r="P5" s="421"/>
       <c r="Q5" s="122" t="s">
         <v>37</v>
       </c>
@@ -10083,6 +10083,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -10099,9 +10102,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10114,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10142,15 +10142,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="427" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
-      <c r="G1" s="425"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="427"/>
+      <c r="F1" s="427"/>
+      <c r="G1" s="427"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -10243,15 +10243,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="426" t="s">
+      <c r="A2" s="428" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="426"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="428"/>
+      <c r="G2" s="428"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -10344,15 +10344,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="429" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -13828,12 +13828,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="422" t="s">
+      <c r="B35" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
+      <c r="C35" s="424"/>
+      <c r="D35" s="424"/>
+      <c r="E35" s="424"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -14702,10 +14702,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="172"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="423"/>
-      <c r="H43" s="423"/>
-      <c r="I43" s="423"/>
-      <c r="J43" s="423"/>
+      <c r="G43" s="425"/>
+      <c r="H43" s="425"/>
+      <c r="I43" s="425"/>
+      <c r="J43" s="425"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -22905,11 +22905,11 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="420" t="s">
+      <c r="A119" s="422" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="421"/>
-      <c r="C119" s="424"/>
+      <c r="B119" s="423"/>
+      <c r="C119" s="426"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
         <v>7108470</v>
@@ -23114,11 +23114,11 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="420" t="s">
+      <c r="A121" s="422" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="421"/>
-      <c r="C121" s="421"/>
+      <c r="B121" s="423"/>
+      <c r="C121" s="423"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
         <v>7108470</v>
@@ -34352,7 +34352,7 @@
   </sheetPr>
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -34376,28 +34376,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="432" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="432"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="434"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="441"/>
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="443"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34418,13 +34418,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="433" t="s">
+      <c r="A3" s="435" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="435"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="437"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34451,13 +34451,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="444" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="444"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="446"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34569,7 +34569,7 @@
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="472">
+      <c r="E7" s="400">
         <v>643931</v>
       </c>
       <c r="F7" s="7"/>
@@ -34718,7 +34718,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="231"/>
       <c r="H11" s="231"/>
-      <c r="I11" s="471"/>
+      <c r="I11" s="399"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="394"/>
@@ -34774,11 +34774,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="429" t="s">
+      <c r="I13" s="431" t="s">
         <v>217</v>
       </c>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
+      <c r="J13" s="431"/>
+      <c r="K13" s="431"/>
       <c r="L13" s="393">
         <f>SUM(L3:L12)</f>
         <v>214920</v>
@@ -34803,11 +34803,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="297"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="445" t="s">
+      <c r="I14" s="447" t="s">
         <v>242</v>
       </c>
-      <c r="J14" s="445"/>
-      <c r="K14" s="445"/>
+      <c r="J14" s="447"/>
+      <c r="K14" s="447"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -34835,11 +34835,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="298"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="429" t="s">
+      <c r="I15" s="431" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="429"/>
-      <c r="K15" s="429"/>
+      <c r="J15" s="431"/>
+      <c r="K15" s="431"/>
       <c r="L15" s="393">
         <f>L13-L14</f>
         <v>160920</v>
@@ -34916,13 +34916,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="438"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="439"/>
+      <c r="D19" s="439"/>
+      <c r="E19" s="440"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -38085,21 +38085,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="451"/>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="A1" s="463"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="464" t="s">
+      <c r="A2" s="448" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="465"/>
+      <c r="B2" s="472"/>
       <c r="C2" s="294">
         <f>C83</f>
         <v>50500</v>
@@ -38112,10 +38112,10 @@
       <c r="I2" s="303"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="448" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="470"/>
+      <c r="B3" s="449"/>
       <c r="C3" s="294">
         <v>53000</v>
       </c>
@@ -38127,10 +38127,10 @@
       <c r="I3" s="303"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="448" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="470"/>
+      <c r="B4" s="449"/>
       <c r="C4" s="307">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -38143,15 +38143,15 @@
       <c r="I4" s="303"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="451"/>
-      <c r="B5" s="451"/>
-      <c r="C5" s="451"/>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="451"/>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463"/>
+      <c r="H5" s="463"/>
+      <c r="I5" s="463"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="255" t="s">
@@ -38191,13 +38191,13 @@
       </c>
       <c r="D7" s="284"/>
       <c r="E7" s="282"/>
-      <c r="G7" s="454">
+      <c r="G7" s="450">
         <v>44684</v>
       </c>
       <c r="H7" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="457">
+      <c r="I7" s="452">
         <v>15000</v>
       </c>
     </row>
@@ -38213,11 +38213,11 @@
       </c>
       <c r="D8" s="284"/>
       <c r="E8" s="282"/>
-      <c r="G8" s="454"/>
+      <c r="G8" s="450"/>
       <c r="H8" s="289" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="457"/>
+      <c r="I8" s="452"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="276" t="s">
@@ -38231,11 +38231,11 @@
       </c>
       <c r="D9" s="284"/>
       <c r="E9" s="282"/>
-      <c r="G9" s="455"/>
+      <c r="G9" s="451"/>
       <c r="H9" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="458"/>
+      <c r="I9" s="453"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="276" t="s">
@@ -38247,13 +38247,13 @@
       </c>
       <c r="D10" s="284"/>
       <c r="E10" s="282"/>
-      <c r="G10" s="454">
+      <c r="G10" s="450">
         <v>44684</v>
       </c>
       <c r="H10" s="289" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="457">
+      <c r="I10" s="452">
         <v>5500</v>
       </c>
     </row>
@@ -38267,11 +38267,11 @@
       </c>
       <c r="D11" s="284"/>
       <c r="E11" s="282"/>
-      <c r="G11" s="454"/>
+      <c r="G11" s="450"/>
       <c r="H11" s="289" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="457"/>
+      <c r="I11" s="452"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="276" t="s">
@@ -38283,11 +38283,11 @@
       </c>
       <c r="D12" s="284"/>
       <c r="E12" s="282"/>
-      <c r="G12" s="455"/>
+      <c r="G12" s="451"/>
       <c r="H12" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="458"/>
+      <c r="I12" s="453"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="276"/>
@@ -38295,13 +38295,13 @@
       <c r="C13" s="276"/>
       <c r="D13" s="284"/>
       <c r="E13" s="282"/>
-      <c r="G13" s="454">
+      <c r="G13" s="450">
         <v>44684</v>
       </c>
       <c r="H13" s="289" t="s">
         <v>186</v>
       </c>
-      <c r="I13" s="457">
+      <c r="I13" s="452">
         <v>5000</v>
       </c>
     </row>
@@ -38311,11 +38311,11 @@
       <c r="C14" s="254"/>
       <c r="D14" s="284"/>
       <c r="E14" s="282"/>
-      <c r="G14" s="454"/>
+      <c r="G14" s="450"/>
       <c r="H14" s="289" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="457"/>
+      <c r="I14" s="452"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="276"/>
@@ -38323,11 +38323,11 @@
       <c r="C15" s="276"/>
       <c r="D15" s="284"/>
       <c r="E15" s="282"/>
-      <c r="G15" s="455"/>
+      <c r="G15" s="451"/>
       <c r="H15" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="458"/>
+      <c r="I15" s="453"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="254" t="s">
@@ -38341,13 +38341,13 @@
       </c>
       <c r="D16" s="284"/>
       <c r="E16" s="282"/>
-      <c r="G16" s="454">
+      <c r="G16" s="450">
         <v>44684</v>
       </c>
       <c r="H16" s="289" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="457">
+      <c r="I16" s="452">
         <v>3000</v>
       </c>
     </row>
@@ -38363,11 +38363,11 @@
       </c>
       <c r="D17" s="284"/>
       <c r="E17" s="282"/>
-      <c r="G17" s="454"/>
+      <c r="G17" s="450"/>
       <c r="H17" s="289" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="457"/>
+      <c r="I17" s="452"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="254" t="s">
@@ -38381,11 +38381,11 @@
       </c>
       <c r="D18" s="284"/>
       <c r="E18" s="282"/>
-      <c r="G18" s="455"/>
+      <c r="G18" s="451"/>
       <c r="H18" s="290" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="457"/>
+      <c r="I18" s="452"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="254" t="s">
@@ -38399,13 +38399,13 @@
       </c>
       <c r="D19" s="284"/>
       <c r="E19" s="282"/>
-      <c r="G19" s="454" t="s">
+      <c r="G19" s="450" t="s">
         <v>195</v>
       </c>
       <c r="H19" s="289" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="456">
+      <c r="I19" s="466">
         <v>18000</v>
       </c>
     </row>
@@ -38421,11 +38421,11 @@
       </c>
       <c r="D20" s="284"/>
       <c r="E20" s="282"/>
-      <c r="G20" s="454"/>
+      <c r="G20" s="450"/>
       <c r="H20" s="289" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="457"/>
+      <c r="I20" s="452"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="254" t="s">
@@ -38439,11 +38439,11 @@
       </c>
       <c r="D21" s="284"/>
       <c r="E21" s="282"/>
-      <c r="G21" s="455"/>
+      <c r="G21" s="451"/>
       <c r="H21" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="458"/>
+      <c r="I21" s="453"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="254" t="s">
@@ -38457,13 +38457,13 @@
       </c>
       <c r="D22" s="284"/>
       <c r="E22" s="282"/>
-      <c r="G22" s="454" t="s">
+      <c r="G22" s="450" t="s">
         <v>195</v>
       </c>
       <c r="H22" s="289" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="457">
+      <c r="I22" s="452">
         <v>7500</v>
       </c>
     </row>
@@ -38479,11 +38479,11 @@
       </c>
       <c r="D23" s="284"/>
       <c r="E23" s="282"/>
-      <c r="G23" s="454"/>
+      <c r="G23" s="450"/>
       <c r="H23" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="457"/>
+      <c r="I23" s="452"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="254" t="s">
@@ -38497,11 +38497,11 @@
       </c>
       <c r="D24" s="284"/>
       <c r="E24" s="282"/>
-      <c r="G24" s="455"/>
+      <c r="G24" s="451"/>
       <c r="H24" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="I24" s="458"/>
+      <c r="I24" s="453"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="254" t="s">
@@ -38515,13 +38515,13 @@
       </c>
       <c r="D25" s="284"/>
       <c r="E25" s="282"/>
-      <c r="G25" s="454" t="s">
+      <c r="G25" s="450" t="s">
         <v>195</v>
       </c>
       <c r="H25" s="289" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="457">
+      <c r="I25" s="452">
         <v>1000</v>
       </c>
     </row>
@@ -38537,11 +38537,11 @@
       </c>
       <c r="D26" s="284"/>
       <c r="E26" s="282"/>
-      <c r="G26" s="454"/>
+      <c r="G26" s="450"/>
       <c r="H26" s="289" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="457"/>
+      <c r="I26" s="452"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="254" t="s">
@@ -38555,11 +38555,11 @@
       </c>
       <c r="D27" s="284"/>
       <c r="E27" s="282"/>
-      <c r="G27" s="455"/>
+      <c r="G27" s="451"/>
       <c r="H27" s="290" t="s">
         <v>199</v>
       </c>
-      <c r="I27" s="458"/>
+      <c r="I27" s="453"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="254" t="s">
@@ -38573,13 +38573,13 @@
       </c>
       <c r="D28" s="284"/>
       <c r="E28" s="282"/>
-      <c r="G28" s="459" t="s">
+      <c r="G28" s="467" t="s">
         <v>195</v>
       </c>
       <c r="H28" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="I28" s="461">
+      <c r="I28" s="469">
         <v>-2000</v>
       </c>
     </row>
@@ -38599,11 +38599,11 @@
       <c r="E29" s="282">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="459"/>
+      <c r="G29" s="467"/>
       <c r="H29" s="292" t="s">
         <v>200</v>
       </c>
-      <c r="I29" s="462"/>
+      <c r="I29" s="470"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="254" t="s">
@@ -38619,11 +38619,11 @@
         <v>158</v>
       </c>
       <c r="E30" s="282"/>
-      <c r="G30" s="460"/>
+      <c r="G30" s="468"/>
       <c r="H30" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="463"/>
+      <c r="I30" s="471"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="254" t="s">
@@ -38639,10 +38639,10 @@
         <v>160</v>
       </c>
       <c r="E31" s="282"/>
-      <c r="G31" s="452" t="s">
+      <c r="G31" s="464" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="453"/>
+      <c r="H31" s="465"/>
       <c r="I31" s="304">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -38662,10 +38662,10 @@
         <v>167</v>
       </c>
       <c r="E32" s="282"/>
-      <c r="G32" s="468" t="s">
+      <c r="G32" s="461" t="s">
         <v>218</v>
       </c>
-      <c r="H32" s="469"/>
+      <c r="H32" s="462"/>
       <c r="I32" s="305">
         <f>I52</f>
         <v>37500</v>
@@ -38687,10 +38687,10 @@
       <c r="E33" s="282">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="466" t="s">
+      <c r="G33" s="459" t="s">
         <v>219</v>
       </c>
-      <c r="H33" s="467"/>
+      <c r="H33" s="460"/>
       <c r="I33" s="306">
         <f>I31-I32</f>
         <v>15500</v>
@@ -38738,16 +38738,16 @@
       <c r="E36" s="282">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="446" t="s">
+      <c r="G36" s="456" t="s">
         <v>248</v>
       </c>
-      <c r="H36" s="447"/>
-      <c r="I36" s="448"/>
-      <c r="K36" s="446" t="s">
+      <c r="H36" s="457"/>
+      <c r="I36" s="458"/>
+      <c r="K36" s="456" t="s">
         <v>253</v>
       </c>
-      <c r="L36" s="447"/>
-      <c r="M36" s="448"/>
+      <c r="L36" s="457"/>
+      <c r="M36" s="458"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="254" t="s">
@@ -39116,18 +39116,18 @@
       <c r="C52" s="254"/>
       <c r="D52" s="284"/>
       <c r="E52" s="282"/>
-      <c r="G52" s="449" t="s">
+      <c r="G52" s="454" t="s">
         <v>91</v>
       </c>
-      <c r="H52" s="450"/>
+      <c r="H52" s="455"/>
       <c r="I52" s="312">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="449" t="s">
+      <c r="K52" s="454" t="s">
         <v>91</v>
       </c>
-      <c r="L52" s="450"/>
+      <c r="L52" s="455"/>
       <c r="M52" s="312">
         <f>SUM(M38:M51)</f>
         <v>27000</v>
@@ -39358,18 +39358,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -39386,6 +39374,18 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39411,18 +39411,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="451"/>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
+      <c r="A1" s="463"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="464" t="s">
+      <c r="A2" s="448" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="465"/>
+      <c r="B2" s="472"/>
       <c r="C2" s="294">
         <f>C81</f>
         <v>71750</v>
@@ -39432,12 +39432,12 @@
       <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="451"/>
-      <c r="B3" s="451"/>
-      <c r="C3" s="451"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="451"/>
-      <c r="F3" s="451"/>
+      <c r="A3" s="463"/>
+      <c r="B3" s="463"/>
+      <c r="C3" s="463"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="463"/>
+      <c r="F3" s="463"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="255" t="s">
